--- a/HuskyTAC/Test.xlsx
+++ b/HuskyTAC/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="382">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -650,6 +650,18 @@
     <t>CHI1232918-CHI8403963</t>
   </si>
   <si>
+    <t>TLLU4616515</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>7032045328</t>
+  </si>
+  <si>
+    <t>ONEYHKGV78076404</t>
+  </si>
+  <si>
     <t>SEGU1390068</t>
   </si>
   <si>
@@ -1022,6 +1034,15 @@
     <t>DJPDXA4162486</t>
   </si>
   <si>
+    <t>BEAU2750146</t>
+  </si>
+  <si>
+    <t>7032045325</t>
+  </si>
+  <si>
+    <t>ONEYTPEV26277500</t>
+  </si>
+  <si>
     <t>TRLU9731277</t>
   </si>
   <si>
@@ -1116,9 +1137,6 @@
   </si>
   <si>
     <t>TCLU3519929</t>
-  </si>
-  <si>
-    <t>01</t>
   </si>
   <si>
     <t>7032045315</t>
@@ -1184,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2445,13 +2463,13 @@
         <v>212</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="D69" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E69" t="s">
         <v>214</v>
@@ -2465,10 +2483,10 @@
         <v>216</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
         <v>217</v>
@@ -2485,10 +2503,10 @@
         <v>220</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="D71" t="s">
         <v>221</v>
@@ -2525,10 +2543,10 @@
         <v>228</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="D73" t="s">
         <v>229</v>
@@ -2545,33 +2563,33 @@
         <v>232</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" t="s">
         <v>233</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>234</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>235</v>
-      </c>
-      <c r="F74" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>236</v>
+      </c>
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" t="s">
         <v>237</v>
       </c>
-      <c r="B75" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>238</v>
-      </c>
-      <c r="D75" t="s">
-        <v>239</v>
       </c>
       <c r="E75" t="s">
         <v>239</v>
@@ -2585,40 +2603,42 @@
         <v>241</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
       <c r="D76" t="s">
-        <v>242</v>
-      </c>
-      <c r="E76"/>
+        <v>243</v>
+      </c>
+      <c r="E76" t="s">
+        <v>243</v>
+      </c>
       <c r="F76" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D77" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2627,31 +2647,29 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s">
+        <v>252</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" t="s">
         <v>250</v>
-      </c>
-      <c r="E79" t="s">
-        <v>251</v>
-      </c>
-      <c r="F79" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="80">
@@ -2668,15 +2686,15 @@
         <v>254</v>
       </c>
       <c r="E80" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F80" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B81" t="s">
         <v>87</v>
@@ -2685,18 +2703,18 @@
         <v>112</v>
       </c>
       <c r="D81" t="s">
+        <v>258</v>
+      </c>
+      <c r="E81" t="s">
+        <v>255</v>
+      </c>
+      <c r="F81" t="s">
         <v>256</v>
-      </c>
-      <c r="E81" t="s">
-        <v>251</v>
-      </c>
-      <c r="F81" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B82" t="s">
         <v>87</v>
@@ -2705,18 +2723,18 @@
         <v>112</v>
       </c>
       <c r="D82" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E82" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F82" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
@@ -2725,49 +2743,49 @@
         <v>112</v>
       </c>
       <c r="D83" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E83" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F83" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D84" t="s">
-        <v>262</v>
-      </c>
-      <c r="E84"/>
+        <v>264</v>
+      </c>
+      <c r="E84" t="s">
+        <v>255</v>
+      </c>
       <c r="F84" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="D85" t="s">
-        <v>265</v>
-      </c>
-      <c r="E85" t="s">
         <v>266</v>
       </c>
+      <c r="E85"/>
       <c r="F85" t="s">
         <v>267</v>
       </c>
@@ -2780,39 +2798,39 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
         <v>269</v>
       </c>
-      <c r="E86"/>
+      <c r="E86" t="s">
+        <v>270</v>
+      </c>
       <c r="F86" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>272</v>
-      </c>
-      <c r="E87" t="s">
-        <v>272</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="E87"/>
       <c r="F87" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2821,33 +2839,33 @@
         <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E88" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="F88" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="D89" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E89" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="F89" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90">
@@ -2858,99 +2876,101 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D90" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E90" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F90" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>284</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
         <v>281</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>277</v>
-      </c>
       <c r="D91" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E91" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F91" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>281</v>
+      </c>
+      <c r="D92" t="s">
         <v>282</v>
       </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
-        <v>277</v>
-      </c>
-      <c r="D92" t="s">
-        <v>278</v>
-      </c>
       <c r="E92" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F92" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>286</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>281</v>
+      </c>
+      <c r="D93" t="s">
+        <v>282</v>
+      </c>
+      <c r="E93" t="s">
+        <v>282</v>
+      </c>
+      <c r="F93" t="s">
         <v>283</v>
-      </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
-        <v>277</v>
-      </c>
-      <c r="D93" t="s">
-        <v>278</v>
-      </c>
-      <c r="E93" t="s">
-        <v>278</v>
-      </c>
-      <c r="F93" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="D94" t="s">
-        <v>285</v>
-      </c>
-      <c r="E94"/>
+        <v>282</v>
+      </c>
+      <c r="E94" t="s">
+        <v>282</v>
+      </c>
       <c r="F94" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -2959,16 +2979,16 @@
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -2977,143 +2997,141 @@
         <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B97" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B98" t="s">
         <v>87</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D98" t="s">
-        <v>294</v>
-      </c>
-      <c r="E98" t="s">
-        <v>251</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="E98"/>
       <c r="F98" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>296</v>
-      </c>
-      <c r="E99"/>
+        <v>298</v>
+      </c>
+      <c r="E99" t="s">
+        <v>255</v>
+      </c>
       <c r="F99" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B100" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>298</v>
-      </c>
-      <c r="E100" t="s">
-        <v>298</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E100"/>
       <c r="F100" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="D101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F101" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B102" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>304</v>
-      </c>
-      <c r="E102"/>
+        <v>305</v>
+      </c>
+      <c r="E102" t="s">
+        <v>305</v>
+      </c>
       <c r="F102" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C103" t="s">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="D103" t="s">
-        <v>307</v>
-      </c>
-      <c r="E103" t="s">
         <v>308</v>
       </c>
+      <c r="E103"/>
       <c r="F103" t="s">
         <v>309</v>
       </c>
@@ -3123,22 +3141,24 @@
         <v>310</v>
       </c>
       <c r="B104" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="D104" t="s">
         <v>311</v>
       </c>
-      <c r="E104"/>
+      <c r="E104" t="s">
+        <v>312</v>
+      </c>
       <c r="F104" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B105" t="s">
         <v>87</v>
@@ -3147,16 +3167,16 @@
         <v>88</v>
       </c>
       <c r="D105" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E105"/>
       <c r="F105" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B106" t="s">
         <v>87</v>
@@ -3165,16 +3185,16 @@
         <v>88</v>
       </c>
       <c r="D106" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B107" t="s">
         <v>87</v>
@@ -3183,31 +3203,29 @@
         <v>88</v>
       </c>
       <c r="D107" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E107"/>
       <c r="F107" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C108" t="s">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="D108" t="s">
-        <v>321</v>
-      </c>
-      <c r="E108" t="s">
-        <v>322</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E108"/>
       <c r="F108" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="109">
@@ -3215,10 +3233,10 @@
         <v>324</v>
       </c>
       <c r="B109" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C109" t="s">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="D109" t="s">
         <v>325</v>
@@ -3238,19 +3256,21 @@
         <v>87</v>
       </c>
       <c r="C110" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D110" t="s">
         <v>329</v>
       </c>
-      <c r="E110"/>
+      <c r="E110" t="s">
+        <v>330</v>
+      </c>
       <c r="F110" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B111" t="s">
         <v>87</v>
@@ -3259,51 +3279,49 @@
         <v>88</v>
       </c>
       <c r="D111" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E111"/>
       <c r="F111" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B112" t="s">
         <v>87</v>
       </c>
       <c r="C112" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D112" t="s">
-        <v>335</v>
-      </c>
-      <c r="E112" t="s">
-        <v>251</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="E112"/>
       <c r="F112" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B113" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C113" t="s">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c r="D113" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E113" t="s">
-        <v>338</v>
+        <v>255</v>
       </c>
       <c r="F113" t="s">
-        <v>339</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114">
@@ -3311,138 +3329,140 @@
         <v>340</v>
       </c>
       <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>213</v>
+      </c>
+      <c r="D114" t="s">
         <v>341</v>
       </c>
-      <c r="C114" t="s">
+      <c r="E114" t="s">
+        <v>341</v>
+      </c>
+      <c r="F114" t="s">
         <v>342</v>
-      </c>
-      <c r="D114" t="s">
-        <v>343</v>
-      </c>
-      <c r="E114" t="s">
-        <v>343</v>
-      </c>
-      <c r="F114" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B115" t="s">
         <v>39</v>
       </c>
       <c r="C115" t="s">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="D115" t="s">
+        <v>344</v>
+      </c>
+      <c r="E115" t="s">
+        <v>345</v>
+      </c>
+      <c r="F115" t="s">
         <v>346</v>
-      </c>
-      <c r="E115"/>
-      <c r="F115" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>347</v>
+      </c>
+      <c r="B116" t="s">
         <v>348</v>
       </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>349</v>
       </c>
       <c r="D116" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E116" t="s">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="F116" t="s">
-        <v>231</v>
+        <v>351</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B117" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C117" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D117" t="s">
-        <v>351</v>
-      </c>
-      <c r="E117" t="s">
-        <v>352</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="E117"/>
       <c r="F117" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D118" t="s">
-        <v>355</v>
-      </c>
-      <c r="E118"/>
+        <v>356</v>
+      </c>
+      <c r="E118" t="s">
+        <v>234</v>
+      </c>
       <c r="F118" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B119" t="s">
         <v>87</v>
       </c>
       <c r="C119" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D119" t="s">
-        <v>357</v>
-      </c>
-      <c r="E119"/>
+        <v>358</v>
+      </c>
+      <c r="E119" t="s">
+        <v>359</v>
+      </c>
       <c r="F119" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>359</v>
-      </c>
-      <c r="E120" t="s">
-        <v>360</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="E120"/>
       <c r="F120" t="s">
-        <v>361</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B121" t="s">
         <v>87</v>
@@ -3451,11 +3471,11 @@
         <v>88</v>
       </c>
       <c r="D121" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E121"/>
       <c r="F121" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122">
@@ -3463,57 +3483,57 @@
         <v>365</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="D122" t="s">
         <v>366</v>
       </c>
       <c r="E122" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="F122" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="C123" t="s">
-        <v>368</v>
+        <v>88</v>
       </c>
       <c r="D123" t="s">
-        <v>369</v>
-      </c>
-      <c r="E123" t="s">
-        <v>369</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="E123"/>
       <c r="F123" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="D124" t="s">
-        <v>372</v>
-      </c>
-      <c r="E124"/>
+        <v>373</v>
+      </c>
+      <c r="E124" t="s">
+        <v>326</v>
+      </c>
       <c r="F124" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
     </row>
     <row r="125">
@@ -3524,14 +3544,52 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="D125" t="s">
         <v>375</v>
       </c>
-      <c r="E125"/>
+      <c r="E125" t="s">
+        <v>375</v>
+      </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>377</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
+        <v>378</v>
+      </c>
+      <c r="E126"/>
+      <c r="F126" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>380</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>381</v>
+      </c>
+      <c r="E127"/>
+      <c r="F127" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/HuskyTAC/Test.xlsx
+++ b/HuskyTAC/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="589">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -116,6 +116,72 @@
     <t>ONEYHKGV78076404</t>
   </si>
   <si>
+    <t>TRHU2705895</t>
+  </si>
+  <si>
+    <t>MOL CREATION</t>
+  </si>
+  <si>
+    <t>067E</t>
+  </si>
+  <si>
+    <t>9077905832-01</t>
+  </si>
+  <si>
+    <t>ONEYWU8MH0368400</t>
+  </si>
+  <si>
+    <t>MOTU6719995</t>
+  </si>
+  <si>
+    <t>PRAGUE EXPRESS</t>
+  </si>
+  <si>
+    <t>0060</t>
+  </si>
+  <si>
+    <t>CHI1257365-CHI8545376</t>
+  </si>
+  <si>
+    <t>PNHV03741700</t>
+  </si>
+  <si>
+    <t>TLLU5450970</t>
+  </si>
+  <si>
+    <t>CHI1257365-CHI8545374</t>
+  </si>
+  <si>
+    <t>PNHV03785800</t>
+  </si>
+  <si>
+    <t>CAIU9457751</t>
+  </si>
+  <si>
+    <t>CHI1257367-CHI8545424</t>
+  </si>
+  <si>
+    <t>DACV05594700</t>
+  </si>
+  <si>
+    <t>MOTU0618082</t>
+  </si>
+  <si>
+    <t>CHI1257367-CHI8545446</t>
+  </si>
+  <si>
+    <t>JKTV33695400</t>
+  </si>
+  <si>
+    <t>ONEU7037939</t>
+  </si>
+  <si>
+    <t>CHI1257369-CHI8574584</t>
+  </si>
+  <si>
+    <t>HANV12287700</t>
+  </si>
+  <si>
     <t>KKFU8067689</t>
   </si>
   <si>
@@ -134,177 +200,249 @@
     <t>SGNV53980800</t>
   </si>
   <si>
-    <t>TCNU3045112</t>
-  </si>
-  <si>
-    <t>MOL CREATION</t>
-  </si>
-  <si>
-    <t>00067</t>
-  </si>
-  <si>
-    <t>DJPDXA4160633</t>
-  </si>
-  <si>
-    <t>7180865739</t>
-  </si>
-  <si>
-    <t>W234053842</t>
-  </si>
-  <si>
-    <t>FSCU8232758</t>
+    <t>TCKU9988994</t>
+  </si>
+  <si>
+    <t>CHI1257371-CHI8574583</t>
+  </si>
+  <si>
+    <t>HPHV05768800</t>
+  </si>
+  <si>
+    <t>TCLU7804647</t>
+  </si>
+  <si>
+    <t>CHI1257367-CHI8545423</t>
+  </si>
+  <si>
+    <t>DACV05593600</t>
+  </si>
+  <si>
+    <t>TCLU7828525</t>
+  </si>
+  <si>
+    <t>CHI1257367-CHI8545379</t>
+  </si>
+  <si>
+    <t>SGNV51371700</t>
+  </si>
+  <si>
+    <t>TCLU5153274</t>
+  </si>
+  <si>
+    <t>00060</t>
+  </si>
+  <si>
+    <t>DJSEAA4178128</t>
+  </si>
+  <si>
+    <t>7032038954</t>
+  </si>
+  <si>
+    <t>SZX1904BMRC0</t>
+  </si>
+  <si>
+    <t>TCLU2510336</t>
+  </si>
+  <si>
+    <t>0065</t>
+  </si>
+  <si>
+    <t>CHI1257360-CHI8574579</t>
+  </si>
+  <si>
+    <t>TUTV04889300</t>
+  </si>
+  <si>
+    <t>SZLU9635659</t>
+  </si>
+  <si>
+    <t>CHI1257362-CHI8545405</t>
+  </si>
+  <si>
+    <t>BKKV68382700</t>
+  </si>
+  <si>
+    <t>SEGU9317000</t>
+  </si>
+  <si>
+    <t>CHI1257362-CHI8545404</t>
+  </si>
+  <si>
+    <t>DFSU6251120</t>
+  </si>
+  <si>
+    <t>CHI1252843-CHI8545412</t>
+  </si>
+  <si>
+    <t>BKKV71134300</t>
+  </si>
+  <si>
+    <t>FSCU4617659</t>
+  </si>
+  <si>
+    <t>CHI1257363-CHI8545444</t>
+  </si>
+  <si>
+    <t>JKTV33535400</t>
+  </si>
+  <si>
+    <t>GESU6798741</t>
+  </si>
+  <si>
+    <t>CHI1257365-CHI8545370</t>
+  </si>
+  <si>
+    <t>PNHV04112700</t>
+  </si>
+  <si>
+    <t>AKLU6506140</t>
+  </si>
+  <si>
+    <t>CHI1257367-CHI8545475</t>
+  </si>
+  <si>
+    <t>DACV05592500</t>
+  </si>
+  <si>
+    <t>TTNU9149821</t>
+  </si>
+  <si>
+    <t>CHI1257367-CHI8545445</t>
+  </si>
+  <si>
+    <t>JKTV33694300</t>
+  </si>
+  <si>
+    <t>ONEU7023350</t>
+  </si>
+  <si>
+    <t>CHI1257369-CHI8574586</t>
+  </si>
+  <si>
+    <t>HANV12287702</t>
+  </si>
+  <si>
+    <t>MOEU0710816</t>
+  </si>
+  <si>
+    <t>CHI1257369-CHI8574585</t>
+  </si>
+  <si>
+    <t>HANV11514602</t>
+  </si>
+  <si>
+    <t>DRYU4290791</t>
+  </si>
+  <si>
+    <t>HELSINKI BRIDGE</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>CHI1252643-CHI8545611</t>
+  </si>
+  <si>
+    <t>TA8DE1696500</t>
+  </si>
+  <si>
+    <t>NYKU9797147</t>
+  </si>
+  <si>
+    <t>CHI1252667-CHI8545463</t>
+  </si>
+  <si>
+    <t>BKKV61634700</t>
+  </si>
+  <si>
+    <t>NYKU4168389</t>
+  </si>
+  <si>
+    <t>CHI1252843-CHI8545410</t>
+  </si>
+  <si>
+    <t>BKKV71124900</t>
+  </si>
+  <si>
+    <t>TRLU7601968</t>
+  </si>
+  <si>
+    <t>CHI1252848-CHI8545357</t>
+  </si>
+  <si>
+    <t>MAAV11524901</t>
+  </si>
+  <si>
+    <t>KKFU9129661</t>
+  </si>
+  <si>
+    <t>CHI1252856-CHI8545624</t>
+  </si>
+  <si>
+    <t>TA8DC5965600</t>
+  </si>
+  <si>
+    <t>DRYU4125950</t>
+  </si>
+  <si>
+    <t>CHI1252862-CHI8545460</t>
+  </si>
+  <si>
+    <t>BKKV56224600</t>
+  </si>
+  <si>
+    <t>TCLU7810167</t>
+  </si>
+  <si>
+    <t>CHI1252866-CHI8545487</t>
+  </si>
+  <si>
+    <t>HANV11507802</t>
+  </si>
+  <si>
+    <t>MOFU1403192</t>
+  </si>
+  <si>
+    <t>CHI1252800-CHI8545574</t>
+  </si>
+  <si>
+    <t>BKKV69758800</t>
+  </si>
+  <si>
+    <t>NYKU5152406</t>
+  </si>
+  <si>
+    <t>CHI1252804-CHI8545571</t>
+  </si>
+  <si>
+    <t>BKKV60311500</t>
+  </si>
+  <si>
+    <t>TLLU4285309</t>
+  </si>
+  <si>
+    <t>CHI1252832-CHI8545542</t>
+  </si>
+  <si>
+    <t>DACV06780500</t>
+  </si>
+  <si>
+    <t>KKFU8084330</t>
+  </si>
+  <si>
+    <t>CHI1252848-CHI8545359</t>
+  </si>
+  <si>
+    <t>MAAV11524900</t>
+  </si>
+  <si>
+    <t>KKTU7961569</t>
   </si>
   <si>
     <t>00065</t>
   </si>
   <si>
-    <t>DJSEAA4176332</t>
-  </si>
-  <si>
-    <t>7032030936</t>
-  </si>
-  <si>
-    <t>SGN190439958</t>
-  </si>
-  <si>
-    <t>TCLU5153274</t>
-  </si>
-  <si>
-    <t>PRAGUE EXPRESS</t>
-  </si>
-  <si>
-    <t>00060</t>
-  </si>
-  <si>
-    <t>DJSEAA4178128</t>
-  </si>
-  <si>
-    <t>7032038954</t>
-  </si>
-  <si>
-    <t>SZX1904BMRC0</t>
-  </si>
-  <si>
-    <t>DFSU6251120</t>
-  </si>
-  <si>
-    <t>0060</t>
-  </si>
-  <si>
-    <t>CHI1252843-CHI8545412</t>
-  </si>
-  <si>
-    <t>BKKV71134300</t>
-  </si>
-  <si>
-    <t>DRYU4290791</t>
-  </si>
-  <si>
-    <t>HELSINKI BRIDGE</t>
-  </si>
-  <si>
-    <t>0035</t>
-  </si>
-  <si>
-    <t>CHI1252643-CHI8545611</t>
-  </si>
-  <si>
-    <t>TA8DE1696500</t>
-  </si>
-  <si>
-    <t>NYKU9797147</t>
-  </si>
-  <si>
-    <t>CHI1252667-CHI8545463</t>
-  </si>
-  <si>
-    <t>BKKV61634700</t>
-  </si>
-  <si>
-    <t>NYKU4168389</t>
-  </si>
-  <si>
-    <t>CHI1252843-CHI8545410</t>
-  </si>
-  <si>
-    <t>BKKV71124900</t>
-  </si>
-  <si>
-    <t>TRLU7601968</t>
-  </si>
-  <si>
-    <t>CHI1252848-CHI8545357</t>
-  </si>
-  <si>
-    <t>MAAV11524901</t>
-  </si>
-  <si>
-    <t>KKFU9129661</t>
-  </si>
-  <si>
-    <t>CHI1252856-CHI8545624</t>
-  </si>
-  <si>
-    <t>TA8DC5965600</t>
-  </si>
-  <si>
-    <t>DRYU4125950</t>
-  </si>
-  <si>
-    <t>CHI1252862-CHI8545460</t>
-  </si>
-  <si>
-    <t>BKKV56224600</t>
-  </si>
-  <si>
-    <t>TCLU7810167</t>
-  </si>
-  <si>
-    <t>CHI1252866-CHI8545487</t>
-  </si>
-  <si>
-    <t>HANV11507802</t>
-  </si>
-  <si>
-    <t>MOFU1403192</t>
-  </si>
-  <si>
-    <t>CHI1252800-CHI8545574</t>
-  </si>
-  <si>
-    <t>BKKV69758800</t>
-  </si>
-  <si>
-    <t>NYKU5152406</t>
-  </si>
-  <si>
-    <t>CHI1252804-CHI8545571</t>
-  </si>
-  <si>
-    <t>BKKV60311500</t>
-  </si>
-  <si>
-    <t>TLLU4285309</t>
-  </si>
-  <si>
-    <t>CHI1252832-CHI8545542</t>
-  </si>
-  <si>
-    <t>DACV06780500</t>
-  </si>
-  <si>
-    <t>KKFU8084330</t>
-  </si>
-  <si>
-    <t>CHI1252848-CHI8545359</t>
-  </si>
-  <si>
-    <t>MAAV11524900</t>
-  </si>
-  <si>
-    <t>KKTU7961569</t>
-  </si>
-  <si>
     <t>DJSEAA4170399</t>
   </si>
   <si>
@@ -368,61 +506,22 @@
     <t>DACV06455405</t>
   </si>
   <si>
-    <t>HLBU2086245</t>
-  </si>
-  <si>
-    <t>DJPDXA4162489</t>
-  </si>
-  <si>
-    <t>7180867014</t>
-  </si>
-  <si>
-    <t>NG11904BWKJ3</t>
-  </si>
-  <si>
-    <t>TLLU5948900</t>
-  </si>
-  <si>
-    <t>DJPDXA4162491</t>
-  </si>
-  <si>
-    <t>TCNU8171582</t>
-  </si>
-  <si>
-    <t>DJPDXA4162490</t>
-  </si>
-  <si>
-    <t>GESU6321240</t>
-  </si>
-  <si>
-    <t>DJPDXA4162488</t>
-  </si>
-  <si>
-    <t>UACU5775683</t>
-  </si>
-  <si>
-    <t>DJPDXA4162492</t>
-  </si>
-  <si>
-    <t>MOFU6821554</t>
-  </si>
-  <si>
-    <t>DJSEAA4160515</t>
-  </si>
-  <si>
-    <t>7032033873</t>
-  </si>
-  <si>
-    <t>HKGV70695300</t>
-  </si>
-  <si>
-    <t>CAIU2661887</t>
-  </si>
-  <si>
-    <t>7180855448</t>
-  </si>
-  <si>
-    <t>EUR1903BBZG2</t>
+    <t>UETU5333454</t>
+  </si>
+  <si>
+    <t>CHI1257367-CHI8545381</t>
+  </si>
+  <si>
+    <t>SGNV51373900</t>
+  </si>
+  <si>
+    <t>KKFU9104154</t>
+  </si>
+  <si>
+    <t>CHI1257369-CHI8574581</t>
+  </si>
+  <si>
+    <t>HANV11514600</t>
   </si>
   <si>
     <t>TCNU6435238</t>
@@ -437,16 +536,67 @@
     <t>HKGV76703600</t>
   </si>
   <si>
-    <t>TCLU9294748</t>
-  </si>
-  <si>
-    <t>0067</t>
-  </si>
-  <si>
-    <t>CHI1244502-CHI8495347</t>
-  </si>
-  <si>
-    <t>NB9BE7172600</t>
+    <t>DRYU9753266</t>
+  </si>
+  <si>
+    <t>DJSEAA4185612</t>
+  </si>
+  <si>
+    <t>7032034904</t>
+  </si>
+  <si>
+    <t>SZX1904BGWC4</t>
+  </si>
+  <si>
+    <t>TEMU9567304</t>
+  </si>
+  <si>
+    <t>CHI1257362-CHI8545403</t>
+  </si>
+  <si>
+    <t>NYKU4742769</t>
+  </si>
+  <si>
+    <t>CHI1257365-CHI8545372</t>
+  </si>
+  <si>
+    <t>NYKU3705631</t>
+  </si>
+  <si>
+    <t>CHI1257363-CHI8545443</t>
+  </si>
+  <si>
+    <t>TEMU7566187</t>
+  </si>
+  <si>
+    <t>CHI1257365-CHI8545375</t>
+  </si>
+  <si>
+    <t>BEAU4428381</t>
+  </si>
+  <si>
+    <t>CHI1257367-CHI8545448</t>
+  </si>
+  <si>
+    <t>JKTV36668700</t>
+  </si>
+  <si>
+    <t>BEAU4435328</t>
+  </si>
+  <si>
+    <t>CHI1257367-CHI8545455</t>
+  </si>
+  <si>
+    <t>TUTV04941600</t>
+  </si>
+  <si>
+    <t>GESU6432109</t>
+  </si>
+  <si>
+    <t>CHI1257367-CHI8545450</t>
+  </si>
+  <si>
+    <t>JKTV36671800</t>
   </si>
   <si>
     <t>KKFU1202299</t>
@@ -479,9 +629,6 @@
     <t>BMOU5814043</t>
   </si>
   <si>
-    <t>067E</t>
-  </si>
-  <si>
     <t>9077905390-01</t>
   </si>
   <si>
@@ -716,22 +863,85 @@
     <t>HANV11530402</t>
   </si>
   <si>
-    <t>DFSU7372549</t>
-  </si>
-  <si>
-    <t>DJPDXA4162484</t>
-  </si>
-  <si>
-    <t>TCLU4409720</t>
-  </si>
-  <si>
-    <t>DJSEAA4179541</t>
-  </si>
-  <si>
-    <t>7032035409</t>
-  </si>
-  <si>
-    <t>HKGV70706304</t>
+    <t>CXRU1185265</t>
+  </si>
+  <si>
+    <t>7180869300</t>
+  </si>
+  <si>
+    <t>SH9ACE550301</t>
+  </si>
+  <si>
+    <t>TCLU5162070</t>
+  </si>
+  <si>
+    <t>CHI1257365-CHI8545373</t>
+  </si>
+  <si>
+    <t>KKFU7303753</t>
+  </si>
+  <si>
+    <t>CHI1257367-CHI8545380</t>
+  </si>
+  <si>
+    <t>SGNV51372800</t>
+  </si>
+  <si>
+    <t>TGBU5183044</t>
+  </si>
+  <si>
+    <t>CHI1257371-CHI8574582</t>
+  </si>
+  <si>
+    <t>HPHV05389700</t>
+  </si>
+  <si>
+    <t>TTNU8478268</t>
+  </si>
+  <si>
+    <t>7180869310</t>
+  </si>
+  <si>
+    <t>SH9ACE550300</t>
+  </si>
+  <si>
+    <t>TEMU9099950</t>
+  </si>
+  <si>
+    <t>CHI1257362-CHI8545406</t>
+  </si>
+  <si>
+    <t>TLLU6146010</t>
+  </si>
+  <si>
+    <t>CHI1257365-CHI8545377</t>
+  </si>
+  <si>
+    <t>PNHV03939900</t>
+  </si>
+  <si>
+    <t>TCLU9694723</t>
+  </si>
+  <si>
+    <t>CHI1257365-CHI8545371</t>
+  </si>
+  <si>
+    <t>TCNU6072364</t>
+  </si>
+  <si>
+    <t>CHI1257367-CHI8545449</t>
+  </si>
+  <si>
+    <t>JKTV36667600</t>
+  </si>
+  <si>
+    <t>TLLU6092736</t>
+  </si>
+  <si>
+    <t>CHI1257369-CHI8574580</t>
+  </si>
+  <si>
+    <t>HANV12404500</t>
   </si>
   <si>
     <t>GIPU4362760</t>
@@ -1019,6 +1229,15 @@
     <t>HANV11530400</t>
   </si>
   <si>
+    <t>NYKU5263360</t>
+  </si>
+  <si>
+    <t>CHI1257367-CHI8545382</t>
+  </si>
+  <si>
+    <t>SGNV51370600</t>
+  </si>
+  <si>
     <t>TLLU5721897</t>
   </si>
   <si>
@@ -1052,15 +1271,6 @@
     <t>CHI1252815-CHI8545596</t>
   </si>
   <si>
-    <t>FSCU4955770</t>
-  </si>
-  <si>
-    <t>7180865793</t>
-  </si>
-  <si>
-    <t>HANV10913800</t>
-  </si>
-  <si>
     <t>MORU1135923</t>
   </si>
   <si>
@@ -1301,30 +1511,12 @@
     <t>SGNV58080400</t>
   </si>
   <si>
-    <t>CBHU1992520</t>
-  </si>
-  <si>
-    <t>CHI1244502-CHI8495349</t>
-  </si>
-  <si>
-    <t>TA8PK3935300</t>
-  </si>
-  <si>
     <t>TCKU4623648</t>
   </si>
   <si>
     <t>DJSEAA4168571</t>
   </si>
   <si>
-    <t>SESU2803522</t>
-  </si>
-  <si>
-    <t>CHI1244502-CHI8495352</t>
-  </si>
-  <si>
-    <t>TA9DV4278400</t>
-  </si>
-  <si>
     <t>TCLU4228830</t>
   </si>
   <si>
@@ -1376,18 +1568,6 @@
     <t>CHI1252832-CHI8545566</t>
   </si>
   <si>
-    <t>TEMU3545756</t>
-  </si>
-  <si>
-    <t>DJSEAA4162093</t>
-  </si>
-  <si>
-    <t>7032034333</t>
-  </si>
-  <si>
-    <t>W240188699</t>
-  </si>
-  <si>
     <t>DFSU6668731</t>
   </si>
   <si>
@@ -1442,18 +1622,6 @@
     <t>CHI1252848-CHI8545358</t>
   </si>
   <si>
-    <t>HLXU5259001</t>
-  </si>
-  <si>
-    <t>DJPDXA4162507</t>
-  </si>
-  <si>
-    <t>7180867237</t>
-  </si>
-  <si>
-    <t>NG11904BWUM7</t>
-  </si>
-  <si>
     <t>TCKU2043506</t>
   </si>
   <si>
@@ -1502,24 +1670,6 @@
     <t>CHI1252794-CHI8545402</t>
   </si>
   <si>
-    <t>SESU2803498</t>
-  </si>
-  <si>
-    <t>CHI1244502-CHI8495348</t>
-  </si>
-  <si>
-    <t>TA9DV4233900</t>
-  </si>
-  <si>
-    <t>KKFU7477694</t>
-  </si>
-  <si>
-    <t>CHI1244502-CHI8495351</t>
-  </si>
-  <si>
-    <t>TA8DAF575900</t>
-  </si>
-  <si>
     <t>KKFU7700489</t>
   </si>
   <si>
@@ -1583,12 +1733,6 @@
     <t>SGNV51317700</t>
   </si>
   <si>
-    <t>FCIU7324450</t>
-  </si>
-  <si>
-    <t>DJPDXA4162486</t>
-  </si>
-  <si>
     <t>BEAU2750146</t>
   </si>
   <si>
@@ -1596,42 +1740,6 @@
   </si>
   <si>
     <t>ONEYTPEV26277500</t>
-  </si>
-  <si>
-    <t>TRLU9731277</t>
-  </si>
-  <si>
-    <t>DJSEAA4162243</t>
-  </si>
-  <si>
-    <t>7032034331</t>
-  </si>
-  <si>
-    <t>TA9PU1597700</t>
-  </si>
-  <si>
-    <t>YMLU3499849</t>
-  </si>
-  <si>
-    <t>DJPDXA4160650</t>
-  </si>
-  <si>
-    <t>7180865741</t>
-  </si>
-  <si>
-    <t>W234053863</t>
-  </si>
-  <si>
-    <t>SESU2803538</t>
-  </si>
-  <si>
-    <t>CHI1244502-CHI8495350</t>
-  </si>
-  <si>
-    <t>TCNU2207923</t>
-  </si>
-  <si>
-    <t>DJSEAA4162092</t>
   </si>
   <si>
     <t>MOFU1421684</t>
@@ -1715,7 +1823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1892,372 +2000,366 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E12"/>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13"/>
+      <c r="F13" t="s">
         <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14"/>
+      <c r="F14" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21"/>
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E27"/>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -2266,16 +2368,16 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -2284,266 +2386,252 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" t="s">
-        <v>120</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E34"/>
       <c r="F34" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" t="s">
-        <v>120</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E35"/>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" t="s">
-        <v>120</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E36"/>
       <c r="F36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" t="s">
-        <v>120</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E37"/>
       <c r="F37" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38" t="s">
         <v>128</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
         <v>130</v>
       </c>
-      <c r="B39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39"/>
+      <c r="F39" t="s">
         <v>131</v>
-      </c>
-      <c r="E39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40" t="s">
         <v>134</v>
-      </c>
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41" t="s">
         <v>137</v>
-      </c>
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" t="s">
         <v>145</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E43"/>
-      <c r="F43" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -2552,34 +2640,34 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -2588,1457 +2676,1459 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52" t="s">
         <v>173</v>
-      </c>
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" t="s">
-        <v>174</v>
-      </c>
-      <c r="E52"/>
-      <c r="F52" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" t="s">
         <v>176</v>
       </c>
-      <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>177</v>
-      </c>
-      <c r="E53"/>
-      <c r="F53" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" t="s">
         <v>179</v>
-      </c>
-      <c r="B54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" t="s">
-        <v>180</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>190</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D61" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" t="s">
         <v>214</v>
-      </c>
-      <c r="B67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" t="s">
-        <v>215</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>216</v>
+      </c>
+      <c r="B68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" t="s">
         <v>217</v>
       </c>
-      <c r="B68" t="s">
+      <c r="E68"/>
+      <c r="F68" t="s">
         <v>218</v>
-      </c>
-      <c r="C68" t="s">
-        <v>219</v>
-      </c>
-      <c r="D68" t="s">
-        <v>220</v>
-      </c>
-      <c r="E68" t="s">
-        <v>221</v>
-      </c>
-      <c r="F68" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D70" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D71" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D72" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D73" t="s">
-        <v>235</v>
-      </c>
-      <c r="E73" t="s">
-        <v>120</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="E73"/>
       <c r="F73" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>235</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74" t="s">
         <v>236</v>
-      </c>
-      <c r="B74" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" t="s">
-        <v>47</v>
-      </c>
-      <c r="D74" t="s">
-        <v>237</v>
-      </c>
-      <c r="E74" t="s">
-        <v>238</v>
-      </c>
-      <c r="F74" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>245</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C79" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="D79" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>256</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C81" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D81" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C82" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D82" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B84" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>268</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>270</v>
-      </c>
-      <c r="E85" t="s">
-        <v>271</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="E85"/>
       <c r="F85" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>267</v>
       </c>
       <c r="C86" t="s">
-        <v>58</v>
+        <v>268</v>
       </c>
       <c r="D86" t="s">
-        <v>274</v>
-      </c>
-      <c r="E86"/>
+        <v>269</v>
+      </c>
+      <c r="E86" t="s">
+        <v>270</v>
+      </c>
       <c r="F86" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B87" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>277</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>80</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D90" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>267</v>
       </c>
       <c r="C91" t="s">
-        <v>58</v>
+        <v>268</v>
       </c>
       <c r="D91" t="s">
-        <v>289</v>
-      </c>
-      <c r="E91"/>
+        <v>284</v>
+      </c>
+      <c r="E91" t="s">
+        <v>284</v>
+      </c>
       <c r="F91" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D92" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>293</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D93" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>267</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>268</v>
       </c>
       <c r="D95" t="s">
-        <v>301</v>
-      </c>
-      <c r="E95"/>
+        <v>295</v>
+      </c>
+      <c r="E95" t="s">
+        <v>295</v>
+      </c>
       <c r="F95" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D96" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D97" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B98" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D98" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>311</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D99" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B100" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="D101" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C102" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D102" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C103" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D103" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E103"/>
       <c r="F103" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D104" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B105" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C105" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D105" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E105"/>
       <c r="F105" t="s">
-        <v>80</v>
+        <v>323</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B106" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C106" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D106" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D107" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E107"/>
       <c r="F107" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D108" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D109" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E109"/>
       <c r="F109" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D110" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E110"/>
       <c r="F110" t="s">
-        <v>19</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B111" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D111" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E111" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F111" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D112" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E112"/>
       <c r="F112" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>267</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D113" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E113"/>
       <c r="F113" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D114" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E114"/>
       <c r="F114" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D115" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>360</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D116" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E116"/>
       <c r="F116" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D117" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E117"/>
       <c r="F117" t="s">
-        <v>25</v>
+        <v>360</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D118" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E118"/>
       <c r="F118" t="s">
-        <v>10</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D119" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E119"/>
       <c r="F119" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B120" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C120" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D120" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E120"/>
       <c r="F120" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E121"/>
       <c r="F121" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B122" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E122"/>
       <c r="F122" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B123" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E123"/>
       <c r="F123" t="s">
-        <v>60</v>
+        <v>378</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B124" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C124" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="D124" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E124"/>
       <c r="F124" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B125" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E125"/>
       <c r="F125" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B126" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C126" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="D126" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E126"/>
       <c r="F126" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B127" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C127" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D127" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E127"/>
       <c r="F127" t="s">
@@ -4047,115 +4137,115 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D128" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E128"/>
       <c r="F128" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D129" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E129"/>
       <c r="F129" t="s">
-        <v>163</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>397</v>
+      </c>
+      <c r="B130" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" t="s">
         <v>398</v>
-      </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" t="s">
-        <v>399</v>
       </c>
       <c r="E130"/>
       <c r="F130" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>400</v>
+      </c>
+      <c r="B131" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" t="s">
+        <v>41</v>
+      </c>
+      <c r="D131" t="s">
         <v>401</v>
-      </c>
-      <c r="B131" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" t="s">
-        <v>402</v>
       </c>
       <c r="E131"/>
       <c r="F131" t="s">
-        <v>403</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D132" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E132"/>
       <c r="F132" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D133" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E133"/>
       <c r="F133" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -4164,47 +4254,47 @@
         <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E134"/>
       <c r="F134" t="s">
-        <v>22</v>
+        <v>410</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>411</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
         <v>412</v>
-      </c>
-      <c r="B135" t="s">
-        <v>62</v>
-      </c>
-      <c r="C135" t="s">
-        <v>63</v>
-      </c>
-      <c r="D135" t="s">
-        <v>413</v>
       </c>
       <c r="E135"/>
       <c r="F135" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>414</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" t="s">
         <v>415</v>
-      </c>
-      <c r="B136" t="s">
-        <v>52</v>
-      </c>
-      <c r="C136" t="s">
-        <v>58</v>
-      </c>
-      <c r="D136" t="s">
-        <v>416</v>
       </c>
       <c r="E136"/>
       <c r="F136" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
     </row>
     <row r="137">
@@ -4212,35 +4302,35 @@
         <v>417</v>
       </c>
       <c r="B137" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D137" t="s">
         <v>418</v>
       </c>
       <c r="E137"/>
       <c r="F137" t="s">
-        <v>419</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>419</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
         <v>420</v>
-      </c>
-      <c r="B138" t="s">
-        <v>52</v>
-      </c>
-      <c r="C138" t="s">
-        <v>58</v>
-      </c>
-      <c r="D138" t="s">
-        <v>421</v>
       </c>
       <c r="E138"/>
       <c r="F138" t="s">
-        <v>60</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139">
@@ -4248,114 +4338,112 @@
         <v>422</v>
       </c>
       <c r="B139" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D139" t="s">
         <v>423</v>
       </c>
       <c r="E139"/>
       <c r="F139" t="s">
-        <v>172</v>
+        <v>424</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B140" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D140" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E140"/>
       <c r="F140" t="s">
-        <v>95</v>
+        <v>427</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B141" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E141"/>
       <c r="F141" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B142" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E142"/>
       <c r="F142" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B143" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
       <c r="D143" t="s">
-        <v>433</v>
-      </c>
-      <c r="E143" t="s">
-        <v>221</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="E143"/>
       <c r="F143" t="s">
-        <v>222</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B144" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="D144" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E144"/>
       <c r="F144" t="s">
-        <v>436</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -4364,470 +4452,468 @@
         <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E145"/>
       <c r="F145" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D146" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E146"/>
       <c r="F146" t="s">
-        <v>163</v>
+        <v>443</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D147" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E147"/>
       <c r="F147" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D148" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E148"/>
       <c r="F148" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D149" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E149"/>
       <c r="F149" t="s">
-        <v>449</v>
+        <v>87</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D150" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E150"/>
       <c r="F150" t="s">
-        <v>22</v>
+        <v>454</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D151" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E151"/>
       <c r="F151" t="s">
-        <v>195</v>
+        <v>457</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B152" t="s">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="C152" t="s">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="D152" t="s">
-        <v>455</v>
-      </c>
-      <c r="E152" t="s">
-        <v>456</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="E152"/>
       <c r="F152" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B153" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C153" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D153" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E153"/>
       <c r="F153" t="s">
-        <v>71</v>
+        <v>460</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B154" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E154"/>
       <c r="F154" t="s">
-        <v>373</v>
+        <v>465</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B155" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D155" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E155"/>
       <c r="F155" t="s">
-        <v>464</v>
+        <v>212</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B156" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D156" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E156"/>
       <c r="F156" t="s">
-        <v>169</v>
+        <v>470</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B157" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D157" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="E157"/>
       <c r="F157" t="s">
-        <v>74</v>
+        <v>473</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B158" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D158" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="E158"/>
       <c r="F158" t="s">
-        <v>74</v>
+        <v>476</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B159" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D159" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E159"/>
       <c r="F159" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B160" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D160" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="E160"/>
       <c r="F160" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B161" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C161" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="D161" t="s">
-        <v>477</v>
-      </c>
-      <c r="E161" t="s">
-        <v>478</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="E161"/>
       <c r="F161" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B162" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C162" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D162" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="E162"/>
       <c r="F162" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D163" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E163"/>
       <c r="F163" t="s">
-        <v>153</v>
+        <v>489</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B164" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C164" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D164" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E164"/>
       <c r="F164" t="s">
-        <v>487</v>
+        <v>87</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B165" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C165" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D165" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E165"/>
       <c r="F165" t="s">
-        <v>490</v>
+        <v>221</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B166" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C166" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D166" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E166"/>
       <c r="F166" t="s">
-        <v>493</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B167" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C167" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D167" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E167"/>
       <c r="F167" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B168" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="C168" t="s">
-        <v>142</v>
+        <v>268</v>
       </c>
       <c r="D168" t="s">
-        <v>497</v>
-      </c>
-      <c r="E168"/>
+        <v>500</v>
+      </c>
+      <c r="E168" t="s">
+        <v>270</v>
+      </c>
       <c r="F168" t="s">
-        <v>498</v>
+        <v>271</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B169" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="D169" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E169"/>
       <c r="F169" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B170" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D170" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E170"/>
       <c r="F170" t="s">
-        <v>493</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -4836,16 +4922,16 @@
         <v>8</v>
       </c>
       <c r="D171" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E171"/>
       <c r="F171" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -4854,16 +4940,16 @@
         <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E172"/>
       <c r="F172" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -4872,291 +4958,281 @@
         <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E173"/>
       <c r="F173" t="s">
-        <v>25</v>
+        <v>513</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B174" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E174"/>
       <c r="F174" t="s">
-        <v>317</v>
+        <v>22</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B175" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D175" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E175"/>
       <c r="F175" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B176" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C176" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D176" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E176"/>
       <c r="F176" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B177" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C177" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D177" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E177"/>
       <c r="F177" t="s">
-        <v>178</v>
+        <v>443</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D178" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E178"/>
       <c r="F178" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C179" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D179" t="s">
-        <v>524</v>
-      </c>
-      <c r="E179" t="s">
-        <v>120</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="E179"/>
       <c r="F179" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B180" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C180" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D180" t="s">
-        <v>526</v>
-      </c>
-      <c r="E180" t="s">
-        <v>526</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="E180"/>
       <c r="F180" t="s">
-        <v>527</v>
+        <v>119</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B181" t="s">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="C181" t="s">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="D181" t="s">
-        <v>529</v>
-      </c>
-      <c r="E181" t="s">
         <v>530</v>
       </c>
+      <c r="E181"/>
       <c r="F181" t="s">
-        <v>531</v>
+        <v>119</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
+        <v>531</v>
+      </c>
+      <c r="B182" t="s">
+        <v>40</v>
+      </c>
+      <c r="C182" t="s">
+        <v>41</v>
+      </c>
+      <c r="D182" t="s">
         <v>532</v>
       </c>
-      <c r="B182" t="s">
-        <v>41</v>
-      </c>
-      <c r="C182" t="s">
-        <v>42</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="E182"/>
+      <c r="F182" t="s">
         <v>533</v>
-      </c>
-      <c r="E182" t="s">
-        <v>534</v>
-      </c>
-      <c r="F182" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B183" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C183" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="D183" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E183"/>
       <c r="F183" t="s">
-        <v>436</v>
+        <v>140</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
+        <v>536</v>
+      </c>
+      <c r="B184" t="s">
+        <v>40</v>
+      </c>
+      <c r="C184" t="s">
+        <v>41</v>
+      </c>
+      <c r="D184" t="s">
+        <v>537</v>
+      </c>
+      <c r="E184"/>
+      <c r="F184" t="s">
         <v>538</v>
-      </c>
-      <c r="B184" t="s">
-        <v>218</v>
-      </c>
-      <c r="C184" t="s">
-        <v>219</v>
-      </c>
-      <c r="D184" t="s">
-        <v>539</v>
-      </c>
-      <c r="E184" t="s">
-        <v>456</v>
-      </c>
-      <c r="F184" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>539</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" t="s">
         <v>540</v>
-      </c>
-      <c r="B185" t="s">
-        <v>62</v>
-      </c>
-      <c r="C185" t="s">
-        <v>63</v>
-      </c>
-      <c r="D185" t="s">
-        <v>541</v>
       </c>
       <c r="E185"/>
       <c r="F185" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
+        <v>541</v>
+      </c>
+      <c r="B186" t="s">
+        <v>40</v>
+      </c>
+      <c r="C186" t="s">
+        <v>41</v>
+      </c>
+      <c r="D186" t="s">
         <v>542</v>
-      </c>
-      <c r="B186" t="s">
-        <v>7</v>
-      </c>
-      <c r="C186" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" t="s">
-        <v>543</v>
       </c>
       <c r="E186"/>
       <c r="F186" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
+        <v>544</v>
+      </c>
+      <c r="B187" t="s">
+        <v>40</v>
+      </c>
+      <c r="C187" t="s">
+        <v>41</v>
+      </c>
+      <c r="D187" t="s">
         <v>545</v>
-      </c>
-      <c r="B187" t="s">
-        <v>7</v>
-      </c>
-      <c r="C187" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" t="s">
-        <v>546</v>
       </c>
       <c r="E187"/>
       <c r="F187" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
+        <v>547</v>
+      </c>
+      <c r="B188" t="s">
+        <v>40</v>
+      </c>
+      <c r="C188" t="s">
+        <v>41</v>
+      </c>
+      <c r="D188" t="s">
         <v>548</v>
-      </c>
-      <c r="B188" t="s">
-        <v>52</v>
-      </c>
-      <c r="C188" t="s">
-        <v>58</v>
-      </c>
-      <c r="D188" t="s">
-        <v>549</v>
       </c>
       <c r="E188"/>
       <c r="F188" t="s">
-        <v>175</v>
+        <v>549</v>
       </c>
     </row>
     <row r="189">
@@ -5164,19 +5240,291 @@
         <v>550</v>
       </c>
       <c r="B189" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C189" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D189" t="s">
         <v>551</v>
       </c>
-      <c r="E189" t="s">
-        <v>551</v>
-      </c>
+      <c r="E189"/>
       <c r="F189" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
         <v>552</v>
+      </c>
+      <c r="B190" t="s">
+        <v>40</v>
+      </c>
+      <c r="C190" t="s">
+        <v>41</v>
+      </c>
+      <c r="D190" t="s">
+        <v>553</v>
+      </c>
+      <c r="E190"/>
+      <c r="F190" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>554</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" t="s">
+        <v>555</v>
+      </c>
+      <c r="E191"/>
+      <c r="F191" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>557</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" t="s">
+        <v>558</v>
+      </c>
+      <c r="E192"/>
+      <c r="F192" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>560</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" t="s">
+        <v>561</v>
+      </c>
+      <c r="E193"/>
+      <c r="F193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>562</v>
+      </c>
+      <c r="B194" t="s">
+        <v>107</v>
+      </c>
+      <c r="C194" t="s">
+        <v>108</v>
+      </c>
+      <c r="D194" t="s">
+        <v>563</v>
+      </c>
+      <c r="E194"/>
+      <c r="F194" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>564</v>
+      </c>
+      <c r="B195" t="s">
+        <v>40</v>
+      </c>
+      <c r="C195" t="s">
+        <v>41</v>
+      </c>
+      <c r="D195" t="s">
+        <v>565</v>
+      </c>
+      <c r="E195"/>
+      <c r="F195" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>566</v>
+      </c>
+      <c r="B196" t="s">
+        <v>40</v>
+      </c>
+      <c r="C196" t="s">
+        <v>41</v>
+      </c>
+      <c r="D196" t="s">
+        <v>567</v>
+      </c>
+      <c r="E196"/>
+      <c r="F196" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>568</v>
+      </c>
+      <c r="B197" t="s">
+        <v>40</v>
+      </c>
+      <c r="C197" t="s">
+        <v>41</v>
+      </c>
+      <c r="D197" t="s">
+        <v>569</v>
+      </c>
+      <c r="E197"/>
+      <c r="F197" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>570</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" t="s">
+        <v>571</v>
+      </c>
+      <c r="E198"/>
+      <c r="F198" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>573</v>
+      </c>
+      <c r="B199" t="s">
+        <v>30</v>
+      </c>
+      <c r="C199" t="s">
+        <v>31</v>
+      </c>
+      <c r="D199" t="s">
+        <v>574</v>
+      </c>
+      <c r="E199" t="s">
+        <v>574</v>
+      </c>
+      <c r="F199" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>576</v>
+      </c>
+      <c r="B200" t="s">
+        <v>107</v>
+      </c>
+      <c r="C200" t="s">
+        <v>108</v>
+      </c>
+      <c r="D200" t="s">
+        <v>577</v>
+      </c>
+      <c r="E200"/>
+      <c r="F200" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>578</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>579</v>
+      </c>
+      <c r="E201"/>
+      <c r="F201" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>581</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" t="s">
+        <v>582</v>
+      </c>
+      <c r="E202"/>
+      <c r="F202" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>584</v>
+      </c>
+      <c r="B203" t="s">
+        <v>40</v>
+      </c>
+      <c r="C203" t="s">
+        <v>41</v>
+      </c>
+      <c r="D203" t="s">
+        <v>585</v>
+      </c>
+      <c r="E203"/>
+      <c r="F203" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>586</v>
+      </c>
+      <c r="B204" t="s">
+        <v>30</v>
+      </c>
+      <c r="C204" t="s">
+        <v>31</v>
+      </c>
+      <c r="D204" t="s">
+        <v>587</v>
+      </c>
+      <c r="E204" t="s">
+        <v>587</v>
+      </c>
+      <c r="F204" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/HuskyTAC/Test.xlsx
+++ b/HuskyTAC/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="437">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,7 +32,577 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>TCLU8993247</t>
+    <t>ONEU0035657</t>
+  </si>
+  <si>
+    <t>NORTHERN JAGUAR</t>
+  </si>
+  <si>
+    <t>0302</t>
+  </si>
+  <si>
+    <t>CHI1347953-CHI9238091</t>
+  </si>
+  <si>
+    <t>SZPV79715805</t>
+  </si>
+  <si>
+    <t>CAIU5826208</t>
+  </si>
+  <si>
+    <t>CHI1347954-CHI9238088</t>
+  </si>
+  <si>
+    <t>SZPV78971401</t>
+  </si>
+  <si>
+    <t>TEMU8002406</t>
+  </si>
+  <si>
+    <t>CHI1347957-CHI9238076</t>
+  </si>
+  <si>
+    <t>HKGV99640400</t>
+  </si>
+  <si>
+    <t>FSCU8657290</t>
+  </si>
+  <si>
+    <t>CHI1347958-CHI9238095</t>
+  </si>
+  <si>
+    <t>HKGV95050900</t>
+  </si>
+  <si>
+    <t>UETU4113218</t>
+  </si>
+  <si>
+    <t>CONTI CRYSTAL</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>CHI1351706-CHI9238096</t>
+  </si>
+  <si>
+    <t>BKKV94467300</t>
+  </si>
+  <si>
+    <t>KKTU8012211</t>
+  </si>
+  <si>
+    <t>TSINGTAO EXPRESS</t>
+  </si>
+  <si>
+    <t>0066</t>
+  </si>
+  <si>
+    <t>CHI1351731-CHI9238196</t>
+  </si>
+  <si>
+    <t>KHIV05998301</t>
+  </si>
+  <si>
+    <t>KKFU1778520</t>
+  </si>
+  <si>
+    <t>NAGOYA EXPRESS</t>
+  </si>
+  <si>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>CHI1343554-CHI9209490</t>
+  </si>
+  <si>
+    <t>SGNV65298600</t>
+  </si>
+  <si>
+    <t>NYKU0706824</t>
+  </si>
+  <si>
+    <t>CHI1343615-CHI9209460</t>
+  </si>
+  <si>
+    <t>DACV09354500</t>
+  </si>
+  <si>
+    <t>SEGU9278584</t>
+  </si>
+  <si>
+    <t>ONE COMMITMENT</t>
+  </si>
+  <si>
+    <t>0042</t>
+  </si>
+  <si>
+    <t>CHI1343544-CHI9186515</t>
+  </si>
+  <si>
+    <t>NB9BD8145600</t>
+  </si>
+  <si>
+    <t>SEGU5934895</t>
+  </si>
+  <si>
+    <t>CHI1343549-CHI9186526</t>
+  </si>
+  <si>
+    <t>NB8IR0318400</t>
+  </si>
+  <si>
+    <t>HLXU5032511</t>
+  </si>
+  <si>
+    <t>00302</t>
+  </si>
+  <si>
+    <t>DJSEAA4341265</t>
+  </si>
+  <si>
+    <t>7032058252</t>
+  </si>
+  <si>
+    <t>EUR190479096</t>
+  </si>
+  <si>
+    <t>KKFU7871727</t>
+  </si>
+  <si>
+    <t>CHI1338648-CHI9178445</t>
+  </si>
+  <si>
+    <t>HANV15643600</t>
+  </si>
+  <si>
+    <t>NYKU8446718</t>
+  </si>
+  <si>
+    <t>CHI1343618-CHI9209470</t>
+  </si>
+  <si>
+    <t>PNHV05789700</t>
+  </si>
+  <si>
+    <t>TCLU6107381</t>
+  </si>
+  <si>
+    <t>CHI1343618-CHI9209471</t>
+  </si>
+  <si>
+    <t>CAIU5823153</t>
+  </si>
+  <si>
+    <t>CHI1347954-CHI9238085</t>
+  </si>
+  <si>
+    <t>SZPV78971400</t>
+  </si>
+  <si>
+    <t>TLLU5480948</t>
+  </si>
+  <si>
+    <t>SOFIA EXPRESS</t>
+  </si>
+  <si>
+    <t>0053</t>
+  </si>
+  <si>
+    <t>CHI1352308-CHI9270973</t>
+  </si>
+  <si>
+    <t>SZPV70322700</t>
+  </si>
+  <si>
+    <t>SEGU9384837</t>
+  </si>
+  <si>
+    <t>CHI1338785-CHI9179398</t>
+  </si>
+  <si>
+    <t>DACV09148603</t>
+  </si>
+  <si>
+    <t>TCNU4191873</t>
+  </si>
+  <si>
+    <t>CHI1342368-CHI9204050</t>
+  </si>
+  <si>
+    <t>TA8DE2869800</t>
+  </si>
+  <si>
+    <t>NYKU4626291</t>
+  </si>
+  <si>
+    <t>CHI1343549-CHI9186533</t>
+  </si>
+  <si>
+    <t>NB8IR0238500</t>
+  </si>
+  <si>
+    <t>MOEU1413181</t>
+  </si>
+  <si>
+    <t>CHI1343549-CHI9186522</t>
+  </si>
+  <si>
+    <t>NB8IR0297300</t>
+  </si>
+  <si>
+    <t>NYKU4591169</t>
+  </si>
+  <si>
+    <t>CHI1343549-CHI9186521</t>
+  </si>
+  <si>
+    <t>NB8IR0300900</t>
+  </si>
+  <si>
+    <t>DRYU4122062</t>
+  </si>
+  <si>
+    <t>PRAGUE EXPRESS</t>
+  </si>
+  <si>
+    <t>0061</t>
+  </si>
+  <si>
+    <t>CHI1339693-CHI9178374</t>
+  </si>
+  <si>
+    <t>MUMV40648900</t>
+  </si>
+  <si>
+    <t>UACU5080156</t>
+  </si>
+  <si>
+    <t>DJSEAA4340854</t>
+  </si>
+  <si>
+    <t>7032061398</t>
+  </si>
+  <si>
+    <t>SZX1905BUEQ8</t>
+  </si>
+  <si>
+    <t>TRHU2631827</t>
+  </si>
+  <si>
+    <t>CHI1351716-CHI9238104</t>
+  </si>
+  <si>
+    <t>BKKV98373300</t>
+  </si>
+  <si>
+    <t>KKFU6675761</t>
+  </si>
+  <si>
+    <t>CHI1351716-CHI9238105</t>
+  </si>
+  <si>
+    <t>BKKV98377700</t>
+  </si>
+  <si>
+    <t>TCNU4214710</t>
+  </si>
+  <si>
+    <t>CHI1343609-CHI9209463</t>
+  </si>
+  <si>
+    <t>JHBV05348400</t>
+  </si>
+  <si>
+    <t>CAIU9040048</t>
+  </si>
+  <si>
+    <t>CHI1343615-CHI9209459</t>
+  </si>
+  <si>
+    <t>CMBV07714300</t>
+  </si>
+  <si>
+    <t>KKFU7935689</t>
+  </si>
+  <si>
+    <t>CHI1343618-CHI9209468</t>
+  </si>
+  <si>
+    <t>PNHV05580300</t>
+  </si>
+  <si>
+    <t>KKFU8122805</t>
+  </si>
+  <si>
+    <t>CHI1338676-CHI9178827</t>
+  </si>
+  <si>
+    <t>PNHV05281800</t>
+  </si>
+  <si>
+    <t>KKFU7464167</t>
+  </si>
+  <si>
+    <t>CHI1338676-CHI9178826</t>
+  </si>
+  <si>
+    <t>PNHV05284400</t>
+  </si>
+  <si>
+    <t>HLXU5182070</t>
+  </si>
+  <si>
+    <t>DJSEAA4341099</t>
+  </si>
+  <si>
+    <t>7032058975</t>
+  </si>
+  <si>
+    <t>HA3190504558</t>
+  </si>
+  <si>
+    <t>NYKU4892692</t>
+  </si>
+  <si>
+    <t>DJSEAA4353577</t>
+  </si>
+  <si>
+    <t>7032062878</t>
+  </si>
+  <si>
+    <t>HKGVA7902900</t>
+  </si>
+  <si>
+    <t>MOFU6815232</t>
+  </si>
+  <si>
+    <t>CHI1347953-CHI9238084</t>
+  </si>
+  <si>
+    <t>SZPV67447700</t>
+  </si>
+  <si>
+    <t>TGBU5190676</t>
+  </si>
+  <si>
+    <t>DJSEAA4342228</t>
+  </si>
+  <si>
+    <t>7032057360</t>
+  </si>
+  <si>
+    <t>SGNV71704900</t>
+  </si>
+  <si>
+    <t>TCLU4484154</t>
+  </si>
+  <si>
+    <t>DJSEAA4341252</t>
+  </si>
+  <si>
+    <t>7032058247</t>
+  </si>
+  <si>
+    <t>EUR1905APKR5</t>
+  </si>
+  <si>
+    <t>NYKU8036776</t>
+  </si>
+  <si>
+    <t>CHI1343543-CHI9186512</t>
+  </si>
+  <si>
+    <t>HANV15290400</t>
+  </si>
+  <si>
+    <t>NYKU4761054</t>
+  </si>
+  <si>
+    <t>CHI1343543-CHI9186513</t>
+  </si>
+  <si>
+    <t>HANV15291500</t>
+  </si>
+  <si>
+    <t>NYKU5804762</t>
+  </si>
+  <si>
+    <t>CHI1343611-CHI9209465</t>
+  </si>
+  <si>
+    <t>MAAV16062400</t>
+  </si>
+  <si>
+    <t>KKFU8052760</t>
+  </si>
+  <si>
+    <t>CHI1343609-CHI9209462</t>
+  </si>
+  <si>
+    <t>KKFU1515457</t>
+  </si>
+  <si>
+    <t>CHI1351723-CHI9238102</t>
+  </si>
+  <si>
+    <t>BKKV95527800</t>
+  </si>
+  <si>
+    <t>UACU5301299</t>
+  </si>
+  <si>
+    <t>00110</t>
+  </si>
+  <si>
+    <t>DJSEAA4362619</t>
+  </si>
+  <si>
+    <t>7032064765</t>
+  </si>
+  <si>
+    <t>HA3190600482</t>
+  </si>
+  <si>
+    <t>TCKU3972687</t>
+  </si>
+  <si>
+    <t>00042</t>
+  </si>
+  <si>
+    <t>DJSEAA4352660</t>
+  </si>
+  <si>
+    <t>7032058244</t>
+  </si>
+  <si>
+    <t>NB9BD8279700</t>
+  </si>
+  <si>
+    <t>TTNU5081934</t>
+  </si>
+  <si>
+    <t>CHI1347775-CHI9237605</t>
+  </si>
+  <si>
+    <t>BKKV88952500</t>
+  </si>
+  <si>
+    <t>NYKU3692344</t>
+  </si>
+  <si>
+    <t>CHI1343544-CHI9186519</t>
+  </si>
+  <si>
+    <t>NB9BD8243500</t>
+  </si>
+  <si>
+    <t>MOAU0686202</t>
+  </si>
+  <si>
+    <t>CHI1339690-CHI9178225</t>
+  </si>
+  <si>
+    <t>MUMV37555500</t>
+  </si>
+  <si>
+    <t>TCNU8319197</t>
+  </si>
+  <si>
+    <t>DJSEAA4340834</t>
+  </si>
+  <si>
+    <t>7032060561</t>
+  </si>
+  <si>
+    <t>SZX1905BZLM4</t>
+  </si>
+  <si>
+    <t>TCKU3407325</t>
+  </si>
+  <si>
+    <t>CHI1347775-CHI9237606</t>
+  </si>
+  <si>
+    <t>BKKV76997400</t>
+  </si>
+  <si>
+    <t>BSIU2468003</t>
+  </si>
+  <si>
+    <t>DJSEAA4352657</t>
+  </si>
+  <si>
+    <t>NYKU4634255</t>
+  </si>
+  <si>
+    <t>DJSEAA4365164</t>
+  </si>
+  <si>
+    <t>7032057264</t>
+  </si>
+  <si>
+    <t>DL8CS2828600</t>
+  </si>
+  <si>
+    <t>UACU5762958</t>
+  </si>
+  <si>
+    <t>DJSEAA4353728</t>
+  </si>
+  <si>
+    <t>7032031963</t>
+  </si>
+  <si>
+    <t>JA2190455223</t>
+  </si>
+  <si>
+    <t>CAIU5840340</t>
+  </si>
+  <si>
+    <t>DJSEAA4340867</t>
+  </si>
+  <si>
+    <t>7032061843</t>
+  </si>
+  <si>
+    <t>HKGVA1488500</t>
+  </si>
+  <si>
+    <t>TCLU1837068</t>
+  </si>
+  <si>
+    <t>CHI1338592-CHI9178184</t>
+  </si>
+  <si>
+    <t>DACV09276802</t>
+  </si>
+  <si>
+    <t>TRLU7425940</t>
+  </si>
+  <si>
+    <t>CHI1352308-CHI9270972</t>
+  </si>
+  <si>
+    <t>KKFU9138874</t>
+  </si>
+  <si>
+    <t>CHI1347950-CHI9238079</t>
+  </si>
+  <si>
+    <t>SZPV59782300</t>
+  </si>
+  <si>
+    <t>NYKU3744052</t>
+  </si>
+  <si>
+    <t>CHI1347954-CHI9238082</t>
+  </si>
+  <si>
+    <t>SZPV78971405</t>
+  </si>
+  <si>
+    <t>TRIU8065398</t>
   </si>
   <si>
     <t>MOL CELEBRATION</t>
@@ -41,606 +611,72 @@
     <t>0070</t>
   </si>
   <si>
-    <t>CHI1335653-CHI9154138</t>
-  </si>
-  <si>
-    <t>TA8PK1471300</t>
-  </si>
-  <si>
-    <t>TDRU8276471</t>
-  </si>
-  <si>
-    <t>CHI1335653-CHI9154141</t>
-  </si>
-  <si>
-    <t>KKFU1778520</t>
-  </si>
-  <si>
-    <t>NAGOYA EXPRESS</t>
-  </si>
-  <si>
-    <t>0057</t>
-  </si>
-  <si>
-    <t>CHI1343554-CHI9209490</t>
-  </si>
-  <si>
-    <t>SGNV65298600</t>
-  </si>
-  <si>
-    <t>NYKU0706824</t>
-  </si>
-  <si>
-    <t>CONTI CRYSTAL</t>
-  </si>
-  <si>
-    <t>0110</t>
-  </si>
-  <si>
-    <t>CHI1343615-CHI9209460</t>
-  </si>
-  <si>
-    <t>DACV09354500</t>
-  </si>
-  <si>
-    <t>SEGU9278584</t>
-  </si>
-  <si>
-    <t>ONE COMMITMENT</t>
-  </si>
-  <si>
-    <t>0042</t>
-  </si>
-  <si>
-    <t>CHI1343544-CHI9186515</t>
-  </si>
-  <si>
-    <t>NB9BD8145600</t>
-  </si>
-  <si>
-    <t>SEGU5934895</t>
-  </si>
-  <si>
-    <t>CHI1343549-CHI9186526</t>
-  </si>
-  <si>
-    <t>NB8IR0318400</t>
-  </si>
-  <si>
-    <t>HLXU5032511</t>
-  </si>
-  <si>
-    <t>NORTHERN JAGUAR</t>
-  </si>
-  <si>
-    <t>00302</t>
-  </si>
-  <si>
-    <t>DJSEAA4341265</t>
-  </si>
-  <si>
-    <t>7032058252</t>
-  </si>
-  <si>
-    <t>EUR190479096</t>
-  </si>
-  <si>
-    <t>KKFU7871727</t>
-  </si>
-  <si>
-    <t>0302</t>
-  </si>
-  <si>
-    <t>CHI1338648-CHI9178445</t>
-  </si>
-  <si>
-    <t>HANV15643600</t>
-  </si>
-  <si>
-    <t>NYKU8446718</t>
-  </si>
-  <si>
-    <t>CHI1343618-CHI9209470</t>
-  </si>
-  <si>
-    <t>PNHV05789700</t>
-  </si>
-  <si>
-    <t>TCLU6107381</t>
-  </si>
-  <si>
-    <t>CHI1343618-CHI9209471</t>
-  </si>
-  <si>
-    <t>SEGU9384837</t>
-  </si>
-  <si>
-    <t>CHI1338785-CHI9179398</t>
-  </si>
-  <si>
-    <t>DACV09148603</t>
-  </si>
-  <si>
-    <t>TCNU4191873</t>
-  </si>
-  <si>
-    <t>CHI1342368-CHI9204050</t>
-  </si>
-  <si>
-    <t>TA8DE2869800</t>
-  </si>
-  <si>
-    <t>TCNU5615370</t>
-  </si>
-  <si>
-    <t>CHI1332544-CHI9127546</t>
-  </si>
-  <si>
-    <t>SGNV78176500</t>
-  </si>
-  <si>
-    <t>NYKU5170586</t>
-  </si>
-  <si>
-    <t>CHI1332550-CHI9127529</t>
-  </si>
-  <si>
-    <t>DADV01780801</t>
-  </si>
-  <si>
-    <t>GESU6229175</t>
-  </si>
-  <si>
-    <t>CHI1332550-CHI9127528</t>
-  </si>
-  <si>
-    <t>DADV01780800</t>
-  </si>
-  <si>
-    <t>ONEU0064130</t>
-  </si>
-  <si>
-    <t>CHI1332550-CHI9127541</t>
-  </si>
-  <si>
-    <t>SGNV70049301</t>
-  </si>
-  <si>
-    <t>TCLU8211498</t>
-  </si>
-  <si>
-    <t>CHI1332550-CHI9127538</t>
-  </si>
-  <si>
-    <t>SGNV70049300</t>
-  </si>
-  <si>
-    <t>TCLU3409496</t>
-  </si>
-  <si>
-    <t>CHI1332527-CHI9127526</t>
-  </si>
-  <si>
-    <t>SGNV72228400</t>
-  </si>
-  <si>
-    <t>DRYU4248997</t>
-  </si>
-  <si>
-    <t>CHI1332534-CHI9127523</t>
-  </si>
-  <si>
-    <t>SGNV74630300</t>
-  </si>
-  <si>
-    <t>NYKU5277569</t>
-  </si>
-  <si>
-    <t>CHI1332550-CHI9127534</t>
-  </si>
-  <si>
-    <t>TCNU6217391</t>
-  </si>
-  <si>
-    <t>CHI1332550-CHI9127540</t>
-  </si>
-  <si>
-    <t>TCNU6888086</t>
-  </si>
-  <si>
-    <t>CHI1332550-CHI9127539</t>
-  </si>
-  <si>
-    <t>SGNV73152800</t>
-  </si>
-  <si>
-    <t>TLLU5572725</t>
-  </si>
-  <si>
-    <t>CHI1332550-CHI9127536</t>
-  </si>
-  <si>
-    <t>TCLU9299652</t>
-  </si>
-  <si>
-    <t>CHI1332550-CHI9127537</t>
-  </si>
-  <si>
-    <t>NYKU4626291</t>
-  </si>
-  <si>
-    <t>CHI1343549-CHI9186533</t>
-  </si>
-  <si>
-    <t>NB8IR0238500</t>
-  </si>
-  <si>
-    <t>MOEU1413181</t>
-  </si>
-  <si>
-    <t>CHI1343549-CHI9186522</t>
-  </si>
-  <si>
-    <t>NB8IR0297300</t>
-  </si>
-  <si>
-    <t>NYKU4591169</t>
-  </si>
-  <si>
-    <t>CHI1343549-CHI9186521</t>
-  </si>
-  <si>
-    <t>NB8IR0300900</t>
-  </si>
-  <si>
-    <t>DRYU4122062</t>
-  </si>
-  <si>
-    <t>PRAGUE EXPRESS</t>
-  </si>
-  <si>
-    <t>0061</t>
-  </si>
-  <si>
-    <t>CHI1339693-CHI9178374</t>
-  </si>
-  <si>
-    <t>MUMV40648900</t>
-  </si>
-  <si>
-    <t>UACU5080156</t>
-  </si>
-  <si>
-    <t>DJSEAA4340854</t>
-  </si>
-  <si>
-    <t>7032061398</t>
-  </si>
-  <si>
-    <t>SZX1905BUEQ8</t>
-  </si>
-  <si>
-    <t>TCNU4214710</t>
-  </si>
-  <si>
-    <t>CHI1343609-CHI9209463</t>
-  </si>
-  <si>
-    <t>JHBV05348400</t>
-  </si>
-  <si>
-    <t>CAIU9040048</t>
-  </si>
-  <si>
-    <t>CHI1343615-CHI9209459</t>
-  </si>
-  <si>
-    <t>CMBV07714300</t>
-  </si>
-  <si>
-    <t>KKFU7935689</t>
-  </si>
-  <si>
-    <t>CHI1343618-CHI9209468</t>
-  </si>
-  <si>
-    <t>PNHV05580300</t>
-  </si>
-  <si>
-    <t>TDRU8411139</t>
-  </si>
-  <si>
-    <t>CHI1335653-CHI9154136</t>
-  </si>
-  <si>
-    <t>TA8PK1082800</t>
-  </si>
-  <si>
-    <t>TDRU5881083</t>
-  </si>
-  <si>
-    <t>CHI1335653-CHI9154132</t>
-  </si>
-  <si>
-    <t>KKFU8122805</t>
-  </si>
-  <si>
-    <t>CHI1338676-CHI9178827</t>
-  </si>
-  <si>
-    <t>PNHV05281800</t>
-  </si>
-  <si>
-    <t>KKFU7464167</t>
-  </si>
-  <si>
-    <t>CHI1338676-CHI9178826</t>
-  </si>
-  <si>
-    <t>PNHV05284400</t>
-  </si>
-  <si>
-    <t>HLXU5182070</t>
-  </si>
-  <si>
-    <t>DJSEAA4341099</t>
-  </si>
-  <si>
-    <t>7032058975</t>
-  </si>
-  <si>
-    <t>HA3190504558</t>
-  </si>
-  <si>
-    <t>TGBU5190676</t>
-  </si>
-  <si>
-    <t>DJSEAA4342228</t>
-  </si>
-  <si>
-    <t>7032057360</t>
-  </si>
-  <si>
-    <t>SGNV71704900</t>
-  </si>
-  <si>
-    <t>TCLU4484154</t>
-  </si>
-  <si>
-    <t>DJSEAA4341252</t>
-  </si>
-  <si>
-    <t>7032058247</t>
-  </si>
-  <si>
-    <t>EUR1905APKR5</t>
-  </si>
-  <si>
-    <t>DRYU4003715</t>
-  </si>
-  <si>
-    <t>00042</t>
-  </si>
-  <si>
-    <t>DJSEAA4335735</t>
-  </si>
-  <si>
-    <t>7032058026</t>
-  </si>
-  <si>
-    <t>TA1190574897</t>
-  </si>
-  <si>
-    <t>NYKU8036776</t>
-  </si>
-  <si>
-    <t>CHI1343543-CHI9186512</t>
-  </si>
-  <si>
-    <t>HANV15290400</t>
-  </si>
-  <si>
-    <t>NYKU4761054</t>
-  </si>
-  <si>
-    <t>CHI1343543-CHI9186513</t>
-  </si>
-  <si>
-    <t>HANV15291500</t>
-  </si>
-  <si>
-    <t>SZLU9533385</t>
+    <t>CHI1339857-CHI8987825</t>
+  </si>
+  <si>
+    <t>TA8PA0079500</t>
+  </si>
+  <si>
+    <t>ONEU7024248</t>
+  </si>
+  <si>
+    <t>CHI1347957-CHI9238080</t>
+  </si>
+  <si>
+    <t>HKGVA3437800</t>
+  </si>
+  <si>
+    <t>TLLU5711158</t>
+  </si>
+  <si>
+    <t>CHI1338793-CHI9179431</t>
+  </si>
+  <si>
+    <t>MAAV17275400</t>
+  </si>
+  <si>
+    <t>OCGU8046099</t>
+  </si>
+  <si>
+    <t>302E</t>
+  </si>
+  <si>
+    <t>7032059268</t>
+  </si>
+  <si>
+    <t>YMLUW302415229</t>
+  </si>
+  <si>
+    <t>NYKU0806422</t>
+  </si>
+  <si>
+    <t>DJSEAA4353574</t>
+  </si>
+  <si>
+    <t>TEMU7416530</t>
+  </si>
+  <si>
+    <t>CHI1338676-CHI9178822</t>
+  </si>
+  <si>
+    <t>UACU5520548</t>
+  </si>
+  <si>
+    <t>DJSEAA4362823</t>
+  </si>
+  <si>
+    <t>7032061334</t>
+  </si>
+  <si>
+    <t>SZX1906APOY8</t>
+  </si>
+  <si>
+    <t>TGBU5949130</t>
   </si>
   <si>
     <t>00070</t>
   </si>
   <si>
-    <t>7180881822</t>
-  </si>
-  <si>
-    <t>SH9ACF796900</t>
-  </si>
-  <si>
-    <t>NYKU5804762</t>
-  </si>
-  <si>
-    <t>CHI1343611-CHI9209465</t>
-  </si>
-  <si>
-    <t>MAAV16062400</t>
-  </si>
-  <si>
-    <t>KKFU8052760</t>
-  </si>
-  <si>
-    <t>CHI1343609-CHI9209462</t>
-  </si>
-  <si>
-    <t>HAMU1295940</t>
-  </si>
-  <si>
-    <t>DJSEAA4335892</t>
-  </si>
-  <si>
-    <t>7032060556</t>
-  </si>
-  <si>
-    <t>HLCUSZX1905BUFA7</t>
-  </si>
-  <si>
-    <t>TLLU6022019</t>
-  </si>
-  <si>
-    <t>DJSEAA4333724</t>
-  </si>
-  <si>
-    <t>7032054034</t>
-  </si>
-  <si>
-    <t>BKKV93478400</t>
-  </si>
-  <si>
-    <t>NYKU4991000</t>
-  </si>
-  <si>
-    <t>CHI1336042-CHI9155389</t>
-  </si>
-  <si>
-    <t>NB9BE8428400</t>
-  </si>
-  <si>
-    <t>TCLU1666026</t>
-  </si>
-  <si>
-    <t>CHI1336042-CHI9155388</t>
-  </si>
-  <si>
-    <t>NB9BE8436300</t>
-  </si>
-  <si>
-    <t>TRLU6477955</t>
-  </si>
-  <si>
-    <t>CHI1335653-CHI9154140</t>
-  </si>
-  <si>
-    <t>FDCU0604720</t>
-  </si>
-  <si>
-    <t>CHI1336042-CHI9155384</t>
-  </si>
-  <si>
-    <t>NB9BE8445300</t>
-  </si>
-  <si>
-    <t>TCLU8442521</t>
-  </si>
-  <si>
-    <t>CHI1332313-CHI9127388</t>
-  </si>
-  <si>
-    <t>OS8NB8712900</t>
-  </si>
-  <si>
-    <t>KKFU7602604</t>
-  </si>
-  <si>
-    <t>CHI1332313-CHI9127389</t>
-  </si>
-  <si>
-    <t>TRLU7367510</t>
-  </si>
-  <si>
-    <t>CHI1332315-CHI9127390</t>
-  </si>
-  <si>
-    <t>SELV57182900</t>
-  </si>
-  <si>
-    <t>NYKU3692344</t>
-  </si>
-  <si>
-    <t>CHI1343544-CHI9186519</t>
-  </si>
-  <si>
-    <t>NB9BD8243500</t>
-  </si>
-  <si>
-    <t>MOAU0686202</t>
-  </si>
-  <si>
-    <t>CHI1339690-CHI9178225</t>
-  </si>
-  <si>
-    <t>MUMV37555500</t>
-  </si>
-  <si>
-    <t>TCNU8319197</t>
-  </si>
-  <si>
-    <t>DJSEAA4340834</t>
-  </si>
-  <si>
-    <t>7032060561</t>
-  </si>
-  <si>
-    <t>SZX1905BZLM4</t>
-  </si>
-  <si>
-    <t>CAIU5840340</t>
-  </si>
-  <si>
-    <t>DJSEAA4340867</t>
-  </si>
-  <si>
-    <t>7032061843</t>
-  </si>
-  <si>
-    <t>HKGVA1488500</t>
-  </si>
-  <si>
-    <t>TCLU1837068</t>
-  </si>
-  <si>
-    <t>CHI1338592-CHI9178184</t>
-  </si>
-  <si>
-    <t>DACV09276802</t>
-  </si>
-  <si>
-    <t>TRIU8065398</t>
-  </si>
-  <si>
-    <t>CHI1339857-CHI8987825</t>
-  </si>
-  <si>
-    <t>TA8PA0079500</t>
-  </si>
-  <si>
-    <t>TLLU5711158</t>
-  </si>
-  <si>
-    <t>TSINGTAO EXPRESS</t>
-  </si>
-  <si>
-    <t>0066</t>
-  </si>
-  <si>
-    <t>CHI1338793-CHI9179431</t>
-  </si>
-  <si>
-    <t>MAAV17275400</t>
-  </si>
-  <si>
-    <t>TEMU7416530</t>
-  </si>
-  <si>
-    <t>CHI1338676-CHI9178822</t>
-  </si>
-  <si>
-    <t>TGBU5949130</t>
-  </si>
-  <si>
     <t>7180879732</t>
   </si>
   <si>
@@ -662,6 +698,15 @@
     <t>DJSEAA4340853</t>
   </si>
   <si>
+    <t>DRYU4102092</t>
+  </si>
+  <si>
+    <t>CHI1347775-CHI9237604</t>
+  </si>
+  <si>
+    <t>HKGV82571600</t>
+  </si>
+  <si>
     <t>TCLU8417616</t>
   </si>
   <si>
@@ -710,6 +755,12 @@
     <t>CHI1338676-CHI9178825</t>
   </si>
   <si>
+    <t>BSIU9796679</t>
+  </si>
+  <si>
+    <t>DJSEAA4365162</t>
+  </si>
+  <si>
     <t>TCLU1315850</t>
   </si>
   <si>
@@ -737,49 +788,82 @@
     <t>CMBV08665900</t>
   </si>
   <si>
-    <t>BMOU5274135</t>
-  </si>
-  <si>
-    <t>CHI1332544-CHI9127525</t>
-  </si>
-  <si>
-    <t>SGNV78499600</t>
-  </si>
-  <si>
-    <t>TRLU8690620</t>
-  </si>
-  <si>
-    <t>CHI1335653-CHI9154133</t>
-  </si>
-  <si>
-    <t>CBHU1952867</t>
-  </si>
-  <si>
-    <t>CHI1335653-CHI9154139</t>
-  </si>
-  <si>
-    <t>TCNU5337366</t>
-  </si>
-  <si>
-    <t>CHI1332530-CHI9127558</t>
-  </si>
-  <si>
-    <t>SGNV71204400</t>
-  </si>
-  <si>
-    <t>TCKU1567577</t>
-  </si>
-  <si>
-    <t>CHI1332530-CHI9127522</t>
-  </si>
-  <si>
-    <t>TEMU8045666</t>
-  </si>
-  <si>
-    <t>CHI1332539-CHI9127524</t>
-  </si>
-  <si>
-    <t>SGNV77771500</t>
+    <t>DFSU7505831</t>
+  </si>
+  <si>
+    <t>CHI1347953-CHI9238075</t>
+  </si>
+  <si>
+    <t>TCNU7029043</t>
+  </si>
+  <si>
+    <t>CHI1347953-CHI9238092</t>
+  </si>
+  <si>
+    <t>KKFU7883137</t>
+  </si>
+  <si>
+    <t>CHI1347953-CHI9238089</t>
+  </si>
+  <si>
+    <t>NYKU3144926</t>
+  </si>
+  <si>
+    <t>CHI1347954-CHI9238083</t>
+  </si>
+  <si>
+    <t>SZPV78971404</t>
+  </si>
+  <si>
+    <t>GESU6672100</t>
+  </si>
+  <si>
+    <t>CHI1350882-CHI9262429</t>
+  </si>
+  <si>
+    <t>SGNV75425600</t>
+  </si>
+  <si>
+    <t>ONEU7017357</t>
+  </si>
+  <si>
+    <t>CHI1347954-CHI9238086</t>
+  </si>
+  <si>
+    <t>SZPV78971403</t>
+  </si>
+  <si>
+    <t>NYKU3606520</t>
+  </si>
+  <si>
+    <t>CHI1351716-CHI9238103</t>
+  </si>
+  <si>
+    <t>NYKU8391805</t>
+  </si>
+  <si>
+    <t>CHI1351718-CHI9209461</t>
+  </si>
+  <si>
+    <t>DACV09276800</t>
+  </si>
+  <si>
+    <t>TLLU6096900</t>
+  </si>
+  <si>
+    <t>CHI1351726-CHI9238106</t>
+  </si>
+  <si>
+    <t>BKKVA1476600</t>
+  </si>
+  <si>
+    <t>TRHU3591863</t>
+  </si>
+  <si>
+    <t>CHI1351729-CHI9238195</t>
+  </si>
+  <si>
+    <t>JKTV50728700</t>
   </si>
   <si>
     <t>NYKU4434025</t>
@@ -791,13 +875,13 @@
     <t>HANV15289500</t>
   </si>
   <si>
-    <t>TCNU3902051</t>
-  </si>
-  <si>
-    <t>CHI1332544-CHI9127545</t>
-  </si>
-  <si>
-    <t>SGNV78177600</t>
+    <t>TCKU4376039</t>
+  </si>
+  <si>
+    <t>CHI1347775-CHI9237603</t>
+  </si>
+  <si>
+    <t>HKGV82579700</t>
   </si>
   <si>
     <t>NYKU4791892</t>
@@ -815,6 +899,36 @@
     <t>TA8DS1875900</t>
   </si>
   <si>
+    <t>TEMU7466640</t>
+  </si>
+  <si>
+    <t>CHI1347950-CHI9238074</t>
+  </si>
+  <si>
+    <t>TCKU4776349</t>
+  </si>
+  <si>
+    <t>CHI1347953-CHI9238078</t>
+  </si>
+  <si>
+    <t>SZPV71482800</t>
+  </si>
+  <si>
+    <t>TLLU4614739</t>
+  </si>
+  <si>
+    <t>CHI1347953-CHI9238093</t>
+  </si>
+  <si>
+    <t>SEGU5922467</t>
+  </si>
+  <si>
+    <t>CHI1347954-CHI9238087</t>
+  </si>
+  <si>
+    <t>SZPV78971402</t>
+  </si>
+  <si>
     <t>DFSU4012744</t>
   </si>
   <si>
@@ -827,16 +941,40 @@
     <t>SZX1905BUFL9</t>
   </si>
   <si>
-    <t>FCIU9010720</t>
-  </si>
-  <si>
-    <t>DJSEAA4335754</t>
-  </si>
-  <si>
-    <t>7032061365</t>
-  </si>
-  <si>
-    <t>HLCUSZX1905BUFB9</t>
+    <t>XINU1142037</t>
+  </si>
+  <si>
+    <t>DJSEAA4365007</t>
+  </si>
+  <si>
+    <t>7032054713</t>
+  </si>
+  <si>
+    <t>CG2190601508</t>
+  </si>
+  <si>
+    <t>SEGU5750943</t>
+  </si>
+  <si>
+    <t>7032059262</t>
+  </si>
+  <si>
+    <t>YMLUW302415228</t>
+  </si>
+  <si>
+    <t>NYKU4295207</t>
+  </si>
+  <si>
+    <t>MOL CREATION</t>
+  </si>
+  <si>
+    <t>0068</t>
+  </si>
+  <si>
+    <t>CHI1351736-CHI9238197</t>
+  </si>
+  <si>
+    <t>LY8PM1975800</t>
   </si>
   <si>
     <t>KKTU7734673</t>
@@ -893,6 +1031,12 @@
     <t>SH9EF1555400</t>
   </si>
   <si>
+    <t>GESU1414714</t>
+  </si>
+  <si>
+    <t>DJSEAA4352658</t>
+  </si>
+  <si>
     <t>DRYU9764569</t>
   </si>
   <si>
@@ -920,18 +1064,6 @@
     <t>PKGV21040900</t>
   </si>
   <si>
-    <t>FCIU6262306</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>7032054099</t>
-  </si>
-  <si>
-    <t>W236258023</t>
-  </si>
-  <si>
     <t>NYKU4001154</t>
   </si>
   <si>
@@ -974,12 +1106,6 @@
     <t>TLLU6104293</t>
   </si>
   <si>
-    <t>TDRU8269528</t>
-  </si>
-  <si>
-    <t>CHI1335653-CHI9154143</t>
-  </si>
-  <si>
     <t>YMMU6076633</t>
   </si>
   <si>
@@ -992,27 +1118,21 @@
     <t>W234054455</t>
   </si>
   <si>
-    <t>TRLU8688129</t>
-  </si>
-  <si>
-    <t>CHI1335653-CHI9154135</t>
-  </si>
-  <si>
-    <t>SLSU6087170</t>
-  </si>
-  <si>
-    <t>CHI1335653-CHI9154137</t>
-  </si>
-  <si>
-    <t>TA9DV0383400</t>
-  </si>
-  <si>
     <t>UACU5383152</t>
   </si>
   <si>
     <t>DJSEAA4340841</t>
   </si>
   <si>
+    <t>DRYU4286410</t>
+  </si>
+  <si>
+    <t>CHI1351706-CHI9238098</t>
+  </si>
+  <si>
+    <t>BKKV94466900</t>
+  </si>
+  <si>
     <t>TCNU8253891</t>
   </si>
   <si>
@@ -1028,6 +1148,15 @@
     <t>CMBV07779700</t>
   </si>
   <si>
+    <t>NYKU8542990</t>
+  </si>
+  <si>
+    <t>CHI1346189-CHI9226994</t>
+  </si>
+  <si>
+    <t>TA8DE2871800</t>
+  </si>
+  <si>
     <t>CAIU5836042</t>
   </si>
   <si>
@@ -1085,18 +1214,6 @@
     <t>CHI1343618-CHI9209469</t>
   </si>
   <si>
-    <t>TGHU6838256</t>
-  </si>
-  <si>
-    <t>DJSEAA4328706</t>
-  </si>
-  <si>
-    <t>7032054760</t>
-  </si>
-  <si>
-    <t>SH9ACE889400</t>
-  </si>
-  <si>
     <t>UETU4127295</t>
   </si>
   <si>
@@ -1106,10 +1223,46 @@
     <t>SINV29503400</t>
   </si>
   <si>
-    <t>TCLU6221434</t>
-  </si>
-  <si>
-    <t>CHI1336042-CHI9155387</t>
+    <t>TCLU9460643</t>
+  </si>
+  <si>
+    <t>DJSEAA4353578</t>
+  </si>
+  <si>
+    <t>TCNU4891521</t>
+  </si>
+  <si>
+    <t>CHI1347953-CHI9238094</t>
+  </si>
+  <si>
+    <t>TCKU2993073</t>
+  </si>
+  <si>
+    <t>CHI1347953-CHI9238077</t>
+  </si>
+  <si>
+    <t>SZPV71482801</t>
+  </si>
+  <si>
+    <t>NYKU8503973</t>
+  </si>
+  <si>
+    <t>CHI1347954-CHI9238081</t>
+  </si>
+  <si>
+    <t>SZPV76025600</t>
+  </si>
+  <si>
+    <t>TCLU4552789</t>
+  </si>
+  <si>
+    <t>DJSEAA4354711</t>
+  </si>
+  <si>
+    <t>7032059365</t>
+  </si>
+  <si>
+    <t>SH9ACF039600</t>
   </si>
   <si>
     <t>IPXU3577953</t>
@@ -1142,58 +1295,34 @@
     <t>CHI1338793-CHI9179428</t>
   </si>
   <si>
-    <t>TCNU4231770</t>
-  </si>
-  <si>
-    <t>CHI1332550-CHI9127543</t>
-  </si>
-  <si>
-    <t>SGNV76351500</t>
-  </si>
-  <si>
-    <t>FDCU0392262</t>
-  </si>
-  <si>
-    <t>CHI1332550-CHI9127544</t>
-  </si>
-  <si>
-    <t>TCNU7090573</t>
-  </si>
-  <si>
-    <t>CHI1332550-CHI9127527</t>
-  </si>
-  <si>
-    <t>NYKU5275226</t>
-  </si>
-  <si>
-    <t>CHI1332550-CHI9127542</t>
-  </si>
-  <si>
-    <t>SESU2803250</t>
-  </si>
-  <si>
-    <t>CHI1335653-CHI9154142</t>
-  </si>
-  <si>
-    <t>TA9DV0379900</t>
-  </si>
-  <si>
-    <t>TRLU8669324</t>
-  </si>
-  <si>
-    <t>CHI1335653-CHI9154134</t>
-  </si>
-  <si>
-    <t>HLXU5360819</t>
-  </si>
-  <si>
-    <t>DJSEAA4335730</t>
-  </si>
-  <si>
-    <t>7032047732</t>
-  </si>
-  <si>
-    <t>TA1190554460</t>
+    <t>NYKU3879823</t>
+  </si>
+  <si>
+    <t>DJSEAA4352659</t>
+  </si>
+  <si>
+    <t>KKFU1845422</t>
+  </si>
+  <si>
+    <t>CHI1351736-CHI9238107</t>
+  </si>
+  <si>
+    <t>HLBU1982709</t>
+  </si>
+  <si>
+    <t>DJSEAA4362816</t>
+  </si>
+  <si>
+    <t>UASU1023102</t>
+  </si>
+  <si>
+    <t>DJSEAA4362827</t>
+  </si>
+  <si>
+    <t>TCLU6679303</t>
+  </si>
+  <si>
+    <t>DJSEAA4362818</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1297,153 +1426,151 @@
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8"/>
+      <c r="F8" t="s">
         <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1451,402 +1578,408 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12"/>
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24"/>
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" t="s">
-        <v>100</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E30"/>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32"/>
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>114</v>
+      </c>
       <c r="F32" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33"/>
+        <v>117</v>
+      </c>
+      <c r="E33" t="s">
+        <v>118</v>
+      </c>
       <c r="F33" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -1855,390 +1988,394 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35"/>
+        <v>124</v>
+      </c>
+      <c r="E35" t="s">
+        <v>125</v>
+      </c>
       <c r="F35" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36"/>
+        <v>128</v>
+      </c>
+      <c r="E36" t="s">
+        <v>129</v>
+      </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" t="s">
-        <v>124</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E38"/>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" t="s">
-        <v>128</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E39"/>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" t="s">
-        <v>132</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E40"/>
       <c r="F40" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" t="s">
-        <v>137</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="E41"/>
       <c r="F41" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42"/>
+        <v>147</v>
+      </c>
+      <c r="E42" t="s">
+        <v>148</v>
+      </c>
       <c r="F42" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43"/>
+        <v>152</v>
+      </c>
+      <c r="E43" t="s">
+        <v>153</v>
+      </c>
       <c r="F43" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" t="s">
-        <v>147</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E44"/>
       <c r="F44" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F47" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
-      </c>
-      <c r="E48" t="s">
-        <v>160</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="E48"/>
       <c r="F48" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s">
-        <v>163</v>
-      </c>
-      <c r="E49"/>
+        <v>172</v>
+      </c>
+      <c r="E49" t="s">
+        <v>153</v>
+      </c>
       <c r="F49" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
-      </c>
-      <c r="E50"/>
+        <v>174</v>
+      </c>
+      <c r="E50" t="s">
+        <v>175</v>
+      </c>
       <c r="F50" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>169</v>
-      </c>
-      <c r="E51"/>
+        <v>178</v>
+      </c>
+      <c r="E51" t="s">
+        <v>179</v>
+      </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D52" t="s">
-        <v>171</v>
-      </c>
-      <c r="E52"/>
+        <v>182</v>
+      </c>
+      <c r="E52" t="s">
+        <v>183</v>
+      </c>
       <c r="F52" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>175</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -2247,422 +2384,426 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="D57" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>188</v>
-      </c>
-      <c r="E58" t="s">
-        <v>189</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E58"/>
       <c r="F58" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>192</v>
-      </c>
-      <c r="E59" t="s">
-        <v>193</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E59"/>
       <c r="F59" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="D60" t="s">
-        <v>196</v>
-      </c>
-      <c r="E60"/>
+        <v>209</v>
+      </c>
+      <c r="E60" t="s">
+        <v>209</v>
+      </c>
       <c r="F60" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>199</v>
-      </c>
-      <c r="E61"/>
+        <v>212</v>
+      </c>
+      <c r="E61" t="s">
+        <v>118</v>
+      </c>
       <c r="F61" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B62" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
-        <v>207</v>
-      </c>
-      <c r="E63"/>
+        <v>216</v>
+      </c>
+      <c r="E63" t="s">
+        <v>217</v>
+      </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="D64" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E64" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F64" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="D65" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="E65" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F65" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D66" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E66" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F66" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="D74" t="s">
-        <v>236</v>
-      </c>
-      <c r="E74"/>
+        <v>248</v>
+      </c>
+      <c r="E74" t="s">
+        <v>175</v>
+      </c>
       <c r="F74" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>113</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2671,7 +2812,7 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
@@ -2680,965 +2821,967 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="B84" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>268</v>
-      </c>
-      <c r="E86" t="s">
-        <v>269</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="E86"/>
       <c r="F86" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D87" t="s">
-        <v>272</v>
-      </c>
-      <c r="E87" t="s">
-        <v>273</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="E87"/>
       <c r="F87" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>283</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="D91" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>289</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>294</v>
-      </c>
-      <c r="E94" t="s">
-        <v>294</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="E94"/>
       <c r="F94" t="s">
-        <v>295</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>297</v>
-      </c>
-      <c r="E95" t="s">
-        <v>297</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="E95"/>
       <c r="F95" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D96" t="s">
-        <v>300</v>
-      </c>
-      <c r="E96"/>
+        <v>306</v>
+      </c>
+      <c r="E96" t="s">
+        <v>307</v>
+      </c>
       <c r="F96" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C97" t="s">
-        <v>303</v>
+        <v>146</v>
       </c>
       <c r="D97" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E97" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F97" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="D98" t="s">
-        <v>307</v>
-      </c>
-      <c r="E98"/>
+        <v>314</v>
+      </c>
+      <c r="E98" t="s">
+        <v>314</v>
+      </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>315</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="D99" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>118</v>
+        <v>320</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D100" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D101" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>326</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="B102" t="s">
-        <v>315</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
-        <v>316</v>
+        <v>40</v>
       </c>
       <c r="D102" t="s">
-        <v>317</v>
-      </c>
-      <c r="E102" t="s">
-        <v>317</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="E102"/>
       <c r="F102" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B103" t="s">
-        <v>315</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>316</v>
+        <v>40</v>
       </c>
       <c r="D103" t="s">
-        <v>317</v>
-      </c>
-      <c r="E103" t="s">
-        <v>317</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="E103"/>
       <c r="F103" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>113</v>
+        <v>335</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="D105" t="s">
-        <v>323</v>
-      </c>
-      <c r="E105" t="s">
-        <v>324</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="E105"/>
       <c r="F105" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="D106" t="s">
-        <v>327</v>
-      </c>
-      <c r="E106"/>
+        <v>340</v>
+      </c>
+      <c r="E106" t="s">
+        <v>153</v>
+      </c>
       <c r="F106" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>220</v>
       </c>
       <c r="D107" t="s">
-        <v>329</v>
-      </c>
-      <c r="E107"/>
+        <v>342</v>
+      </c>
+      <c r="E107" t="s">
+        <v>342</v>
+      </c>
       <c r="F107" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B108" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="D108" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="E108" t="s">
-        <v>189</v>
+        <v>345</v>
       </c>
       <c r="F108" t="s">
-        <v>190</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="B109" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D109" t="s">
-        <v>334</v>
-      </c>
-      <c r="E109" t="s">
-        <v>100</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="E109"/>
       <c r="F109" t="s">
-        <v>101</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D110" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="E110"/>
       <c r="F110" t="s">
-        <v>337</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="B111" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C111" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D111" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="E111"/>
       <c r="F111" t="s">
-        <v>340</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="B112" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="C112" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="D112" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="E112"/>
       <c r="F112" t="s">
-        <v>343</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D113" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="E113"/>
       <c r="F113" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
+        <v>359</v>
       </c>
       <c r="C114" t="s">
-        <v>25</v>
+        <v>360</v>
       </c>
       <c r="D114" t="s">
-        <v>347</v>
-      </c>
-      <c r="E114"/>
+        <v>361</v>
+      </c>
+      <c r="E114" t="s">
+        <v>361</v>
+      </c>
       <c r="F114" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B115" t="s">
-        <v>24</v>
+        <v>359</v>
       </c>
       <c r="C115" t="s">
-        <v>25</v>
+        <v>360</v>
       </c>
       <c r="D115" t="s">
-        <v>350</v>
-      </c>
-      <c r="E115"/>
+        <v>361</v>
+      </c>
+      <c r="E115" t="s">
+        <v>361</v>
+      </c>
       <c r="F115" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="D116" t="s">
-        <v>353</v>
-      </c>
-      <c r="E116"/>
+        <v>365</v>
+      </c>
+      <c r="E116" t="s">
+        <v>366</v>
+      </c>
       <c r="F116" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D117" t="s">
-        <v>356</v>
-      </c>
-      <c r="E117"/>
+        <v>369</v>
+      </c>
+      <c r="E117" t="s">
+        <v>166</v>
+      </c>
       <c r="F117" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C118" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="D118" t="s">
-        <v>358</v>
-      </c>
-      <c r="E118" t="s">
-        <v>359</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="E118"/>
       <c r="F118" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B119" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D119" t="s">
-        <v>362</v>
-      </c>
-      <c r="E119"/>
+        <v>374</v>
+      </c>
+      <c r="E119" t="s">
+        <v>89</v>
+      </c>
       <c r="F119" t="s">
-        <v>363</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C120" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D120" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="E120"/>
       <c r="F120" t="s">
-        <v>172</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="D121" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="E121"/>
       <c r="F121" t="s">
-        <v>118</v>
+        <v>380</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="B122" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="C122" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="D122" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="E122"/>
       <c r="F122" t="s">
-        <v>237</v>
+        <v>383</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E123"/>
       <c r="F123" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="B124" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="C124" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="D124" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="E124"/>
       <c r="F124" t="s">
-        <v>343</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="B125" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="C125" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="D125" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="E125"/>
       <c r="F125" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B126" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C126" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D126" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="E126"/>
       <c r="F126" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="B127" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C127" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D127" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="E127"/>
       <c r="F127" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="B128" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C128" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D128" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="E128"/>
       <c r="F128" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="B129" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C129" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D129" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="E129"/>
       <c r="F129" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D130" t="s">
-        <v>386</v>
-      </c>
-      <c r="E130"/>
+        <v>404</v>
+      </c>
+      <c r="E130" t="s">
+        <v>118</v>
+      </c>
       <c r="F130" t="s">
-        <v>387</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
@@ -3647,31 +3790,255 @@
         <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="E131"/>
       <c r="F131" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="B132" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>391</v>
-      </c>
-      <c r="E132" t="s">
-        <v>392</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="E132"/>
       <c r="F132" t="s">
-        <v>393</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>410</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>411</v>
+      </c>
+      <c r="E133"/>
+      <c r="F133" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>413</v>
+      </c>
+      <c r="B134" t="s">
+        <v>39</v>
+      </c>
+      <c r="C134" t="s">
+        <v>151</v>
+      </c>
+      <c r="D134" t="s">
+        <v>414</v>
+      </c>
+      <c r="E134" t="s">
+        <v>415</v>
+      </c>
+      <c r="F134" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>417</v>
+      </c>
+      <c r="B135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" t="s">
+        <v>418</v>
+      </c>
+      <c r="E135"/>
+      <c r="F135" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>419</v>
+      </c>
+      <c r="B136" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" t="s">
+        <v>420</v>
+      </c>
+      <c r="E136"/>
+      <c r="F136" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>421</v>
+      </c>
+      <c r="B137" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" t="s">
+        <v>422</v>
+      </c>
+      <c r="E137"/>
+      <c r="F137" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>423</v>
+      </c>
+      <c r="B138" t="s">
+        <v>26</v>
+      </c>
+      <c r="C138" t="s">
+        <v>27</v>
+      </c>
+      <c r="D138" t="s">
+        <v>424</v>
+      </c>
+      <c r="E138"/>
+      <c r="F138" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>425</v>
+      </c>
+      <c r="B139" t="s">
+        <v>26</v>
+      </c>
+      <c r="C139" t="s">
+        <v>27</v>
+      </c>
+      <c r="D139" t="s">
+        <v>426</v>
+      </c>
+      <c r="E139"/>
+      <c r="F139" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>427</v>
+      </c>
+      <c r="B140" t="s">
+        <v>39</v>
+      </c>
+      <c r="C140" t="s">
+        <v>151</v>
+      </c>
+      <c r="D140" t="s">
+        <v>428</v>
+      </c>
+      <c r="E140" t="s">
+        <v>153</v>
+      </c>
+      <c r="F140" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>429</v>
+      </c>
+      <c r="B141" t="s">
+        <v>317</v>
+      </c>
+      <c r="C141" t="s">
+        <v>318</v>
+      </c>
+      <c r="D141" t="s">
+        <v>430</v>
+      </c>
+      <c r="E141"/>
+      <c r="F141" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>431</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>47</v>
+      </c>
+      <c r="D142" t="s">
+        <v>432</v>
+      </c>
+      <c r="E142" t="s">
+        <v>217</v>
+      </c>
+      <c r="F142" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>433</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>47</v>
+      </c>
+      <c r="D143" t="s">
+        <v>434</v>
+      </c>
+      <c r="E143" t="s">
+        <v>217</v>
+      </c>
+      <c r="F143" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>435</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>47</v>
+      </c>
+      <c r="D144" t="s">
+        <v>436</v>
+      </c>
+      <c r="E144" t="s">
+        <v>217</v>
+      </c>
+      <c r="F144" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
